--- a/python macd strat/MACD trading signal.xlsx
+++ b/python macd strat/MACD trading signal.xlsx
@@ -488,19 +488,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="B2" t="n">
-        <v>298</v>
+        <v>303.2266540527344</v>
       </c>
       <c r="C2" t="n">
-        <v>285.3333435058594</v>
+        <v>298.5</v>
       </c>
       <c r="D2" t="n">
-        <v>300</v>
+        <v>303.3333435058594</v>
       </c>
       <c r="E2" t="n">
-        <v>94444500</v>
+        <v>68642400</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -511,19 +511,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44491</v>
+        <v>44494</v>
       </c>
       <c r="B3" t="n">
-        <v>303.2266540527344</v>
+        <v>341.6199951171875</v>
       </c>
       <c r="C3" t="n">
-        <v>298.5</v>
+        <v>316.8433227539062</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3333435058594</v>
+        <v>348.3399963378906</v>
       </c>
       <c r="E3" t="n">
-        <v>68642400</v>
+        <v>188556300</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -534,19 +534,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B4" t="n">
-        <v>341.6199951171875</v>
+        <v>339.4766540527344</v>
       </c>
       <c r="C4" t="n">
-        <v>316.8433227539062</v>
+        <v>341.5633239746094</v>
       </c>
       <c r="D4" t="n">
-        <v>348.3399963378906</v>
+        <v>364.9800109863281</v>
       </c>
       <c r="E4" t="n">
-        <v>188556300</v>
+        <v>187245000</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -557,19 +557,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="B5" t="n">
-        <v>339.4766540527344</v>
+        <v>345.9533386230469</v>
       </c>
       <c r="C5" t="n">
-        <v>341.5633239746094</v>
+        <v>346.5533447265625</v>
       </c>
       <c r="D5" t="n">
-        <v>364.9800109863281</v>
+        <v>356.9599914550781</v>
       </c>
       <c r="E5" t="n">
-        <v>187245000</v>
+        <v>115579500</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -580,19 +580,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="B6" t="n">
-        <v>345.9533386230469</v>
+        <v>359.0133361816406</v>
       </c>
       <c r="C6" t="n">
-        <v>346.5533447265625</v>
+        <v>356.1033325195312</v>
       </c>
       <c r="D6" t="n">
-        <v>356.9599914550781</v>
+        <v>360.3333435058594</v>
       </c>
       <c r="E6" t="n">
-        <v>115579500</v>
+        <v>81639600</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -603,19 +603,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="B7" t="n">
-        <v>359.0133361816406</v>
+        <v>371.3333435058594</v>
       </c>
       <c r="C7" t="n">
-        <v>356.1033325195312</v>
+        <v>360.6199951171875</v>
       </c>
       <c r="D7" t="n">
-        <v>360.3333435058594</v>
+        <v>371.7366638183594</v>
       </c>
       <c r="E7" t="n">
-        <v>81639600</v>
+        <v>89755200</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -626,19 +626,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44498</v>
+        <v>44501</v>
       </c>
       <c r="B8" t="n">
-        <v>371.3333435058594</v>
+        <v>402.8633422851562</v>
       </c>
       <c r="C8" t="n">
-        <v>360.6199951171875</v>
+        <v>381.6666564941406</v>
       </c>
       <c r="D8" t="n">
-        <v>371.7366638183594</v>
+        <v>403.25</v>
       </c>
       <c r="E8" t="n">
-        <v>89755200</v>
+        <v>168146100</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -649,19 +649,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B9" t="n">
+        <v>390.6666564941406</v>
+      </c>
+      <c r="C9" t="n">
+        <v>386.4533386230469</v>
+      </c>
+      <c r="D9" t="n">
         <v>402.8633422851562</v>
       </c>
-      <c r="C9" t="n">
-        <v>381.6666564941406</v>
-      </c>
-      <c r="D9" t="n">
-        <v>403.25</v>
-      </c>
       <c r="E9" t="n">
-        <v>168146100</v>
+        <v>128213400</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -672,19 +672,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B10" t="n">
-        <v>390.6666564941406</v>
+        <v>404.6199951171875</v>
       </c>
       <c r="C10" t="n">
-        <v>386.4533386230469</v>
+        <v>392.4433288574219</v>
       </c>
       <c r="D10" t="n">
-        <v>402.8633422851562</v>
+        <v>405.1300048828125</v>
       </c>
       <c r="E10" t="n">
-        <v>128213400</v>
+        <v>103885500</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -695,19 +695,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B11" t="n">
-        <v>404.6199951171875</v>
+        <v>409.9700012207031</v>
       </c>
       <c r="C11" t="n">
-        <v>392.4433288574219</v>
+        <v>411.4700012207031</v>
       </c>
       <c r="D11" t="n">
-        <v>405.1300048828125</v>
+        <v>414.4966735839844</v>
       </c>
       <c r="E11" t="n">
-        <v>103885500</v>
+        <v>76192200</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -718,19 +718,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B12" t="n">
-        <v>409.9700012207031</v>
+        <v>407.3633422851562</v>
       </c>
       <c r="C12" t="n">
-        <v>411.4700012207031</v>
+        <v>409.3333435058594</v>
       </c>
       <c r="D12" t="n">
-        <v>414.4966735839844</v>
+        <v>413.2900085449219</v>
       </c>
       <c r="E12" t="n">
-        <v>76192200</v>
+        <v>64886400</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -741,19 +741,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44505</v>
+        <v>44508</v>
       </c>
       <c r="B13" t="n">
-        <v>407.3633422851562</v>
+        <v>387.6466674804688</v>
       </c>
       <c r="C13" t="n">
-        <v>409.3333435058594</v>
+        <v>383.2633361816406</v>
       </c>
       <c r="D13" t="n">
-        <v>413.2900085449219</v>
+        <v>399</v>
       </c>
       <c r="E13" t="n">
-        <v>64886400</v>
+        <v>100337100</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -764,19 +764,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B14" t="n">
-        <v>387.6466674804688</v>
+        <v>341.1666564941406</v>
       </c>
       <c r="C14" t="n">
-        <v>383.2633361816406</v>
+        <v>391.2000122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>399</v>
+        <v>391.5</v>
       </c>
       <c r="E14" t="n">
-        <v>100337100</v>
+        <v>177317400</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -787,19 +787,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B15" t="n">
-        <v>341.1666564941406</v>
+        <v>355.9833374023438</v>
       </c>
       <c r="C15" t="n">
-        <v>391.2000122070312</v>
+        <v>336.8033447265625</v>
       </c>
       <c r="D15" t="n">
-        <v>391.5</v>
+        <v>359.3666687011719</v>
       </c>
       <c r="E15" t="n">
-        <v>177317400</v>
+        <v>128408100</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -810,19 +810,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B16" t="n">
-        <v>355.9833374023438</v>
+        <v>354.5033264160156</v>
       </c>
       <c r="C16" t="n">
-        <v>336.8033447265625</v>
+        <v>367.5899963378906</v>
       </c>
       <c r="D16" t="n">
-        <v>359.3666687011719</v>
+        <v>368.3233337402344</v>
       </c>
       <c r="E16" t="n">
-        <v>128408100</v>
+        <v>67189800</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -833,19 +833,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B17" t="n">
-        <v>354.5033264160156</v>
+        <v>344.4733276367188</v>
       </c>
       <c r="C17" t="n">
-        <v>367.5899963378906</v>
+        <v>349.1666564941406</v>
       </c>
       <c r="D17" t="n">
-        <v>368.3233337402344</v>
+        <v>351.5</v>
       </c>
       <c r="E17" t="n">
-        <v>67189800</v>
+        <v>76719300</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -856,19 +856,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44512</v>
+        <v>44515</v>
       </c>
       <c r="B18" t="n">
-        <v>344.4733276367188</v>
+        <v>337.7966613769531</v>
       </c>
       <c r="C18" t="n">
-        <v>349.1666564941406</v>
+        <v>339.2099914550781</v>
       </c>
       <c r="D18" t="n">
-        <v>351.5</v>
+        <v>343.9933471679688</v>
       </c>
       <c r="E18" t="n">
-        <v>76719300</v>
+        <v>104326800</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -879,19 +879,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B19" t="n">
-        <v>337.7966613769531</v>
+        <v>351.57666015625</v>
       </c>
       <c r="C19" t="n">
-        <v>339.2099914550781</v>
+        <v>334.4366760253906</v>
       </c>
       <c r="D19" t="n">
-        <v>343.9933471679688</v>
+        <v>352.3999938964844</v>
       </c>
       <c r="E19" t="n">
-        <v>104326800</v>
+        <v>79627200</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -902,19 +902,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B20" t="n">
-        <v>351.57666015625</v>
+        <v>363.0033264160156</v>
       </c>
       <c r="C20" t="n">
-        <v>334.4366760253906</v>
+        <v>354.5033264160156</v>
       </c>
       <c r="D20" t="n">
-        <v>352.3999938964844</v>
+        <v>373.2133178710938</v>
       </c>
       <c r="E20" t="n">
-        <v>79627200</v>
+        <v>94336200</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -925,19 +925,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B21" t="n">
-        <v>363.0033264160156</v>
+        <v>365.4599914550781</v>
       </c>
       <c r="C21" t="n">
-        <v>354.5033264160156</v>
+        <v>368.8500061035156</v>
       </c>
       <c r="D21" t="n">
-        <v>373.2133178710938</v>
+        <v>370.6666564941406</v>
       </c>
       <c r="E21" t="n">
-        <v>94336200</v>
+        <v>62696700</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -948,19 +948,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B22" t="n">
-        <v>365.4599914550781</v>
+        <v>379.0199890136719</v>
       </c>
       <c r="C22" t="n">
-        <v>368.8500061035156</v>
+        <v>366.2900085449219</v>
       </c>
       <c r="D22" t="n">
-        <v>370.6666564941406</v>
+        <v>379.5733337402344</v>
       </c>
       <c r="E22" t="n">
-        <v>62696700</v>
+        <v>64926900</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -971,19 +971,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="B23" t="n">
-        <v>379.0199890136719</v>
+        <v>385.6233215332031</v>
       </c>
       <c r="C23" t="n">
-        <v>366.2900085449219</v>
+        <v>387.4433288574219</v>
       </c>
       <c r="D23" t="n">
-        <v>379.5733337402344</v>
+        <v>400.6499938964844</v>
       </c>
       <c r="E23" t="n">
-        <v>64926900</v>
+        <v>99217500</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -994,19 +994,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B24" t="n">
-        <v>385.6233215332031</v>
+        <v>369.6766662597656</v>
       </c>
       <c r="C24" t="n">
-        <v>387.4433288574219</v>
+        <v>389.1700134277344</v>
       </c>
       <c r="D24" t="n">
-        <v>400.6499938964844</v>
+        <v>393.5</v>
       </c>
       <c r="E24" t="n">
-        <v>99217500</v>
+        <v>108515100</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1017,19 +1017,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B25" t="n">
-        <v>369.6766662597656</v>
+        <v>372</v>
       </c>
       <c r="C25" t="n">
-        <v>389.1700134277344</v>
+        <v>360.1300048828125</v>
       </c>
       <c r="D25" t="n">
-        <v>393.5</v>
+        <v>377.5899963378906</v>
       </c>
       <c r="E25" t="n">
-        <v>108515100</v>
+        <v>67680600</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1040,19 +1040,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="B26" t="n">
-        <v>372</v>
+        <v>360.6400146484375</v>
       </c>
       <c r="C26" t="n">
-        <v>360.1300048828125</v>
+        <v>366.489990234375</v>
       </c>
       <c r="D26" t="n">
-        <v>377.5899963378906</v>
+        <v>369.5933227539062</v>
       </c>
       <c r="E26" t="n">
-        <v>67680600</v>
+        <v>35042700</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1063,22 +1063,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44526</v>
+        <v>44529</v>
       </c>
       <c r="B27" t="n">
-        <v>360.6400146484375</v>
+        <v>378.9966735839844</v>
       </c>
       <c r="C27" t="n">
-        <v>366.489990234375</v>
+        <v>366.9966735839844</v>
       </c>
       <c r="D27" t="n">
-        <v>369.5933227539062</v>
+        <v>380.8900146484375</v>
       </c>
       <c r="E27" t="n">
-        <v>35042700</v>
+        <v>58393500</v>
       </c>
       <c r="F27" t="n">
-        <v>9.335579380014792</v>
+        <v>9.017188371705799</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1088,22 +1088,22 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B28" t="n">
-        <v>378.9966735839844</v>
+        <v>381.586669921875</v>
       </c>
       <c r="C28" t="n">
-        <v>366.9966735839844</v>
+        <v>381.4566650390625</v>
       </c>
       <c r="D28" t="n">
-        <v>380.8900146484375</v>
+        <v>389.3333435058594</v>
       </c>
       <c r="E28" t="n">
-        <v>58393500</v>
+        <v>81276000</v>
       </c>
       <c r="F28" t="n">
-        <v>9.655935490433819</v>
+        <v>9.406647490130013</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1113,22 +1113,22 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B29" t="n">
-        <v>381.586669921875</v>
+        <v>365</v>
       </c>
       <c r="C29" t="n">
-        <v>381.4566650390625</v>
+        <v>386.8999938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>389.3333435058594</v>
+        <v>390.9466552734375</v>
       </c>
       <c r="E29" t="n">
-        <v>81276000</v>
+        <v>68450400</v>
       </c>
       <c r="F29" t="n">
-        <v>10.00349698862311</v>
+        <v>8.281427859912469</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1138,22 +1138,22 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B30" t="n">
-        <v>365</v>
+        <v>361.5333251953125</v>
       </c>
       <c r="C30" t="n">
-        <v>386.8999938964844</v>
+        <v>366.3533325195312</v>
       </c>
       <c r="D30" t="n">
-        <v>390.9466552734375</v>
+        <v>371</v>
       </c>
       <c r="E30" t="n">
-        <v>68450400</v>
+        <v>73114800</v>
       </c>
       <c r="F30" t="n">
-        <v>8.838649883879668</v>
+        <v>7.028926423215296</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1163,22 +1163,22 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B31" t="n">
-        <v>361.5333251953125</v>
+        <v>338.3233337402344</v>
       </c>
       <c r="C31" t="n">
-        <v>366.3533325195312</v>
+        <v>361.5966796875</v>
       </c>
       <c r="D31" t="n">
-        <v>371</v>
+        <v>363.5266723632812</v>
       </c>
       <c r="E31" t="n">
-        <v>73114800</v>
+        <v>92322000</v>
       </c>
       <c r="F31" t="n">
-        <v>7.548751171995946</v>
+        <v>4.116010863309896</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1188,22 +1188,22 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B32" t="n">
-        <v>338.3233337402344</v>
+        <v>336.336669921875</v>
       </c>
       <c r="C32" t="n">
-        <v>361.5966796875</v>
+        <v>333.836669921875</v>
       </c>
       <c r="D32" t="n">
-        <v>363.5266723632812</v>
+        <v>340.5466613769531</v>
       </c>
       <c r="E32" t="n">
-        <v>92322000</v>
+        <v>81663000</v>
       </c>
       <c r="F32" t="n">
-        <v>4.600611823852887</v>
+        <v>1.62842565151135</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1213,22 +1213,22 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B33" t="n">
-        <v>336.336669921875</v>
+        <v>350.5833435058594</v>
       </c>
       <c r="C33" t="n">
-        <v>333.836669921875</v>
+        <v>348.0666809082031</v>
       </c>
       <c r="D33" t="n">
-        <v>340.5466613769531</v>
+        <v>352.5566711425781</v>
       </c>
       <c r="E33" t="n">
-        <v>81663000</v>
+        <v>56084700</v>
       </c>
       <c r="F33" t="n">
-        <v>2.079907108898965</v>
+        <v>0.797392103080881</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1238,22 +1238,22 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B34" t="n">
-        <v>350.5833435058594</v>
+        <v>356.3200073242188</v>
       </c>
       <c r="C34" t="n">
-        <v>348.0666809082031</v>
+        <v>350.9033203125</v>
       </c>
       <c r="D34" t="n">
-        <v>352.5566711425781</v>
+        <v>357.4599914550781</v>
       </c>
       <c r="E34" t="n">
-        <v>56084700</v>
+        <v>41906400</v>
       </c>
       <c r="F34" t="n">
-        <v>1.217780143952098</v>
+        <v>0.5948359568795922</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1263,28 +1263,28 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B35" t="n">
-        <v>356.3200073242188</v>
+        <v>334.6000061035156</v>
       </c>
       <c r="C35" t="n">
-        <v>350.9033203125</v>
+        <v>353.5466613769531</v>
       </c>
       <c r="D35" t="n">
-        <v>357.4599914550781</v>
+        <v>354.163330078125</v>
       </c>
       <c r="E35" t="n">
-        <v>41906400</v>
+        <v>59438400</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9860723119801946</v>
+        <v>-1.303290305834196</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.836682137815981</v>
+        <v>-4.54601619284556</v>
       </c>
       <c r="H35" t="n">
-        <v>4.822754449796176</v>
+        <v>3.242725887011364</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1292,28 +1292,28 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B36" t="n">
-        <v>334.6000061035156</v>
+        <v>339.010009765625</v>
       </c>
       <c r="C36" t="n">
-        <v>353.5466613769531</v>
+        <v>336.25</v>
       </c>
       <c r="D36" t="n">
-        <v>354.163330078125</v>
+        <v>340.32666015625</v>
       </c>
       <c r="E36" t="n">
-        <v>59438400</v>
+        <v>59664300</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9393521245436887</v>
+        <v>-2.42377879154327</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.609685259471892</v>
+        <v>-4.533203742843708</v>
       </c>
       <c r="H36" t="n">
-        <v>3.670333134928203</v>
+        <v>2.109424951300437</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1321,28 +1321,28 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="B37" t="n">
-        <v>339.010009765625</v>
+        <v>322.1366577148438</v>
       </c>
       <c r="C37" t="n">
-        <v>336.25</v>
+        <v>333.6966552734375</v>
       </c>
       <c r="D37" t="n">
-        <v>340.32666015625</v>
+        <v>335</v>
       </c>
       <c r="E37" t="n">
-        <v>59664300</v>
+        <v>78595500</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.085375512027497</v>
+        <v>-4.620055360847289</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.60456691756456</v>
+        <v>-5.383584249718181</v>
       </c>
       <c r="H37" t="n">
-        <v>2.519191405537063</v>
+        <v>0.7635288888708921</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1350,28 +1350,28 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B38" t="n">
+        <v>319.5033264160156</v>
+      </c>
+      <c r="C38" t="n">
+        <v>315</v>
+      </c>
+      <c r="D38" t="n">
         <v>322.1366577148438</v>
       </c>
-      <c r="C38" t="n">
-        <v>333.6966552734375</v>
-      </c>
-      <c r="D38" t="n">
-        <v>335</v>
-      </c>
       <c r="E38" t="n">
-        <v>78595500</v>
+        <v>70806300</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.305514506135296</v>
+        <v>-6.498200977606245</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.459764729337888</v>
+        <v>-5.80938389318171</v>
       </c>
       <c r="H38" t="n">
-        <v>1.154250223202592</v>
+        <v>-0.6888170844245354</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1379,28 +1379,28 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="B39" t="n">
-        <v>319.5033264160156</v>
+        <v>325.3299865722656</v>
       </c>
       <c r="C39" t="n">
-        <v>315</v>
+        <v>317.7366638183594</v>
       </c>
       <c r="D39" t="n">
-        <v>322.1366577148438</v>
+        <v>326.25</v>
       </c>
       <c r="E39" t="n">
-        <v>70806300</v>
+        <v>75169200</v>
       </c>
       <c r="F39" t="n">
-        <v>-6.205940266027824</v>
+        <v>-7.430824214994516</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.888152391384332</v>
+        <v>-5.393605704455984</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.3177878746434916</v>
+        <v>-2.037218510538532</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1408,28 +1408,28 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B40" t="n">
-        <v>325.3299865722656</v>
+        <v>308.9733276367188</v>
       </c>
       <c r="C40" t="n">
-        <v>317.7366638183594</v>
+        <v>331.5</v>
       </c>
       <c r="D40" t="n">
-        <v>326.25</v>
+        <v>331.6600036621094</v>
       </c>
       <c r="E40" t="n">
-        <v>75169200</v>
+        <v>82771500</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.159350062413409</v>
+        <v>-9.381634880570402</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.473249750215935</v>
+        <v>-5.875533096025496</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.686100312197475</v>
+        <v>-3.506101784544906</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1437,28 +1437,28 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B41" t="n">
-        <v>308.9733276367188</v>
+        <v>310.8566589355469</v>
       </c>
       <c r="C41" t="n">
-        <v>331.5</v>
+        <v>304.92333984375</v>
       </c>
       <c r="D41" t="n">
-        <v>331.6600036621094</v>
+        <v>320.2200012207031</v>
       </c>
       <c r="E41" t="n">
-        <v>82771500</v>
+        <v>100437300</v>
       </c>
       <c r="F41" t="n">
-        <v>-9.129540216121882</v>
+        <v>-10.65289732257577</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.954751923139526</v>
+        <v>-5.717436430424689</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.174788292982357</v>
+        <v>-4.935460892151079</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1466,28 +1466,28 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B42" t="n">
-        <v>310.8566589355469</v>
+        <v>299.9800109863281</v>
       </c>
       <c r="C42" t="n">
-        <v>304.92333984375</v>
+        <v>303.5666809082031</v>
       </c>
       <c r="D42" t="n">
-        <v>320.2200012207031</v>
+        <v>307.2300109863281</v>
       </c>
       <c r="E42" t="n">
-        <v>100437300</v>
+        <v>56480100</v>
       </c>
       <c r="F42" t="n">
-        <v>-10.4188588914443</v>
+        <v>-12.39515294889856</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.795256478769556</v>
+        <v>-5.96775364539798</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.623602412674746</v>
+        <v>-6.427399303500575</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1495,28 +1495,28 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B43" t="n">
-        <v>299.9800109863281</v>
+        <v>312.8433227539062</v>
       </c>
       <c r="C43" t="n">
-        <v>303.5666809082031</v>
+        <v>305.6233215332031</v>
       </c>
       <c r="D43" t="n">
-        <v>307.2300109863281</v>
+        <v>313.1666564941406</v>
       </c>
       <c r="E43" t="n">
-        <v>56480100</v>
+        <v>71517900</v>
       </c>
       <c r="F43" t="n">
-        <v>-12.17792824394002</v>
+        <v>-12.5927796040296</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.043460665012216</v>
+        <v>-4.93230424042322</v>
       </c>
       <c r="H43" t="n">
-        <v>-6.134467578927801</v>
+        <v>-7.660475363606381</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1524,28 +1524,28 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B44" t="n">
-        <v>312.8433227539062</v>
+        <v>336.2900085449219</v>
       </c>
       <c r="C44" t="n">
-        <v>305.6233215332031</v>
+        <v>321.8866577148438</v>
       </c>
       <c r="D44" t="n">
-        <v>313.1666564941406</v>
+        <v>338.5533447265625</v>
       </c>
       <c r="E44" t="n">
-        <v>71517900</v>
+        <v>93634200</v>
       </c>
       <c r="F44" t="n">
-        <v>-12.3912035415708</v>
+        <v>-10.73371695330729</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.005388770114402</v>
+        <v>-2.45859327176073</v>
       </c>
       <c r="H44" t="n">
-        <v>-7.385814771456402</v>
+        <v>-8.275123681546564</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1553,86 +1553,86 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B45" t="n">
-        <v>336.2900085449219</v>
+        <v>355.6666564941406</v>
       </c>
       <c r="C45" t="n">
-        <v>321.8866577148438</v>
+        <v>335.6000061035156</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5533447265625</v>
+        <v>357.6600036621094</v>
       </c>
       <c r="E45" t="n">
-        <v>93634200</v>
+        <v>92713200</v>
       </c>
       <c r="F45" t="n">
-        <v>-10.54669838639626</v>
+        <v>-7.609149319860023</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.528706891951884</v>
+        <v>0.5327794893492328</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.017991494444374</v>
+        <v>-8.141928809209256</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44553</v>
+        <v>44557</v>
       </c>
       <c r="B46" t="n">
-        <v>355.6666564941406</v>
+        <v>364.6466674804688</v>
       </c>
       <c r="C46" t="n">
-        <v>335.6000061035156</v>
+        <v>357.8900146484375</v>
       </c>
       <c r="D46" t="n">
-        <v>357.6600036621094</v>
+        <v>372.3333435058594</v>
       </c>
       <c r="E46" t="n">
-        <v>92713200</v>
+        <v>71145900</v>
       </c>
       <c r="F46" t="n">
-        <v>-7.435667463898483</v>
+        <v>-4.358058140103253</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4658592244367128</v>
+        <v>3.027096535284803</v>
       </c>
       <c r="H46" t="n">
-        <v>-7.901526688335196</v>
+        <v>-7.385154675388057</v>
       </c>
       <c r="I46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="B47" t="n">
-        <v>364.6466674804688</v>
+        <v>362.8233337402344</v>
       </c>
       <c r="C47" t="n">
-        <v>357.8900146484375</v>
+        <v>369.8299865722656</v>
       </c>
       <c r="D47" t="n">
-        <v>372.3333435058594</v>
+        <v>373</v>
       </c>
       <c r="E47" t="n">
-        <v>71145900</v>
+        <v>60324000</v>
       </c>
       <c r="F47" t="n">
-        <v>-4.197158970566079</v>
+        <v>-1.906693575240126</v>
       </c>
       <c r="G47" t="n">
-        <v>2.963494174215294</v>
+        <v>4.382768880118345</v>
       </c>
       <c r="H47" t="n">
-        <v>-7.160653144781373</v>
+        <v>-6.289462455358471</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -1640,28 +1640,28 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="B48" t="n">
-        <v>362.8233337402344</v>
+        <v>362.0633239746094</v>
       </c>
       <c r="C48" t="n">
-        <v>369.8299865722656</v>
+        <v>366.2133178710938</v>
       </c>
       <c r="D48" t="n">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E48" t="n">
-        <v>60324000</v>
+        <v>56154000</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.757486244577194</v>
+        <v>-0.02500766013804423</v>
       </c>
       <c r="G48" t="n">
-        <v>4.322533520163343</v>
+        <v>5.011563836176342</v>
       </c>
       <c r="H48" t="n">
-        <v>-6.080019764740537</v>
+        <v>-5.036571496314386</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -1669,28 +1669,28 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B49" t="n">
-        <v>362.0633239746094</v>
+        <v>356.7799987792969</v>
       </c>
       <c r="C49" t="n">
-        <v>366.2133178710938</v>
+        <v>353.7766723632812</v>
       </c>
       <c r="D49" t="n">
-        <v>368</v>
+        <v>365.1833190917969</v>
       </c>
       <c r="E49" t="n">
-        <v>56154000</v>
+        <v>47040900</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1133390294619971</v>
+        <v>1.028070835089522</v>
       </c>
       <c r="G49" t="n">
-        <v>4.954687035362028</v>
+        <v>4.851713865123127</v>
       </c>
       <c r="H49" t="n">
-        <v>-4.841348005900031</v>
+        <v>-3.823643030033605</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B50" t="n">
-        <v>356.7799987792969</v>
+        <v>352.260009765625</v>
       </c>
       <c r="C50" t="n">
-        <v>353.7766723632812</v>
+        <v>357.8133239746094</v>
       </c>
       <c r="D50" t="n">
-        <v>365.1833190917969</v>
+        <v>360.6666564941406</v>
       </c>
       <c r="E50" t="n">
-        <v>47040900</v>
+        <v>40733700</v>
       </c>
       <c r="F50" t="n">
-        <v>1.156331874972466</v>
+        <v>1.48084750307919</v>
       </c>
       <c r="G50" t="n">
-        <v>4.798143904697998</v>
+        <v>4.243592426490236</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.641812029725532</v>
+        <v>-2.762744923411046</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -1727,28 +1727,28 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="B51" t="n">
-        <v>352.260009765625</v>
+        <v>399.9266662597656</v>
       </c>
       <c r="C51" t="n">
-        <v>357.8133239746094</v>
+        <v>382.5833435058594</v>
       </c>
       <c r="D51" t="n">
-        <v>360.6666564941406</v>
+        <v>400.3566589355469</v>
       </c>
       <c r="E51" t="n">
-        <v>40733700</v>
+        <v>103931400</v>
       </c>
       <c r="F51" t="n">
-        <v>1.599745016376175</v>
+        <v>5.621179627070148</v>
       </c>
       <c r="G51" t="n">
-        <v>4.193245636881366</v>
+        <v>6.707139640384955</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.59350062050519</v>
+        <v>-1.085960013314807</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -1756,28 +1756,28 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44564</v>
+        <v>44565</v>
       </c>
       <c r="B52" t="n">
-        <v>399.9266662597656</v>
+        <v>383.1966552734375</v>
       </c>
       <c r="C52" t="n">
-        <v>382.5833435058594</v>
+        <v>396.5166625976562</v>
       </c>
       <c r="D52" t="n">
-        <v>400.3566589355469</v>
+        <v>402.6666564941406</v>
       </c>
       <c r="E52" t="n">
-        <v>103931400</v>
+        <v>100248300</v>
       </c>
       <c r="F52" t="n">
-        <v>5.731386086622479</v>
+        <v>7.466382783685674</v>
       </c>
       <c r="G52" t="n">
-        <v>6.659909365702136</v>
+        <v>6.841874237600384</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.9285232790796569</v>
+        <v>0.6245085460852891</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -1785,28 +1785,28 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="B53" t="n">
-        <v>383.1966552734375</v>
+        <v>362.7066650390625</v>
       </c>
       <c r="C53" t="n">
-        <v>396.5166625976562</v>
+        <v>382.2166748046875</v>
       </c>
       <c r="D53" t="n">
-        <v>402.6666564941406</v>
+        <v>390.1133422851562</v>
       </c>
       <c r="E53" t="n">
-        <v>100248300</v>
+        <v>80119800</v>
       </c>
       <c r="F53" t="n">
-        <v>7.568524099027172</v>
+        <v>7.19243865369134</v>
       </c>
       <c r="G53" t="n">
-        <v>6.797637902485463</v>
+        <v>5.25434408608484</v>
       </c>
       <c r="H53" t="n">
-        <v>0.770886196541709</v>
+        <v>1.9380945676065</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -1814,28 +1814,28 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B54" t="n">
-        <v>362.7066650390625</v>
+        <v>354.8999938964844</v>
       </c>
       <c r="C54" t="n">
-        <v>382.2166748046875</v>
+        <v>359</v>
       </c>
       <c r="D54" t="n">
-        <v>390.1133422851562</v>
+        <v>362.6666564941406</v>
       </c>
       <c r="E54" t="n">
-        <v>80119800</v>
+        <v>90336600</v>
       </c>
       <c r="F54" t="n">
-        <v>7.28709712025983</v>
+        <v>6.273090555812757</v>
       </c>
       <c r="G54" t="n">
-        <v>5.212968738974497</v>
+        <v>3.467996790565006</v>
       </c>
       <c r="H54" t="n">
-        <v>2.074128381285333</v>
+        <v>2.805093765247752</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B55" t="n">
-        <v>354.8999938964844</v>
+        <v>342.3200073242188</v>
       </c>
       <c r="C55" t="n">
-        <v>359</v>
+        <v>360.1233215332031</v>
       </c>
       <c r="D55" t="n">
-        <v>362.6666564941406</v>
+        <v>360.3099975585938</v>
       </c>
       <c r="E55" t="n">
-        <v>90336600</v>
+        <v>84164700</v>
       </c>
       <c r="F55" t="n">
-        <v>6.360807662612444</v>
+        <v>4.477783680703681</v>
       </c>
       <c r="G55" t="n">
-        <v>3.429343425061689</v>
+        <v>1.338151932364743</v>
       </c>
       <c r="H55" t="n">
-        <v>2.931464237550755</v>
+        <v>3.139631748338938</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -1872,28 +1872,28 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B56" t="n">
-        <v>342.3200073242188</v>
+        <v>352.7066650390625</v>
       </c>
       <c r="C56" t="n">
-        <v>360.1233215332031</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="D56" t="n">
-        <v>360.3099975585938</v>
+        <v>353.0333251953125</v>
       </c>
       <c r="E56" t="n">
-        <v>84164700</v>
+        <v>91815000</v>
       </c>
       <c r="F56" t="n">
-        <v>4.559062775071368</v>
+        <v>3.848740634087733</v>
       </c>
       <c r="G56" t="n">
-        <v>1.30207883001649</v>
+        <v>0.5672871085990359</v>
       </c>
       <c r="H56" t="n">
-        <v>3.256983945054878</v>
+        <v>3.281453525488697</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -1901,28 +1901,28 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B57" t="n">
-        <v>352.7066650390625</v>
+        <v>354.7999877929688</v>
       </c>
       <c r="C57" t="n">
-        <v>333.3333435058594</v>
+        <v>351.2233276367188</v>
       </c>
       <c r="D57" t="n">
-        <v>353.0333251953125</v>
+        <v>358.6166687011719</v>
       </c>
       <c r="E57" t="n">
-        <v>91815000</v>
+        <v>66063300</v>
       </c>
       <c r="F57" t="n">
-        <v>3.924049444135562</v>
+        <v>3.479029057887317</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5336523992645472</v>
+        <v>0.1580604259188956</v>
       </c>
       <c r="H57" t="n">
-        <v>3.390397044871015</v>
+        <v>3.320968631968421</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -1930,28 +1930,28 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B58" t="n">
-        <v>354.7999877929688</v>
+        <v>368.739990234375</v>
       </c>
       <c r="C58" t="n">
-        <v>351.2233276367188</v>
+        <v>359.6166687011719</v>
       </c>
       <c r="D58" t="n">
-        <v>358.6166687011719</v>
+        <v>371.6133422851562</v>
       </c>
       <c r="E58" t="n">
-        <v>66063300</v>
+        <v>83739000</v>
       </c>
       <c r="F58" t="n">
-        <v>3.54880207469256</v>
+        <v>4.261744923051708</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1267240238572356</v>
+        <v>0.752621032866629</v>
       </c>
       <c r="H58" t="n">
-        <v>3.422078050835324</v>
+        <v>3.509123890185079</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -1959,57 +1959,57 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B59" t="n">
-        <v>368.739990234375</v>
+        <v>343.8533325195312</v>
       </c>
       <c r="C59" t="n">
-        <v>359.6166687011719</v>
+        <v>369.6900024414062</v>
       </c>
       <c r="D59" t="n">
-        <v>371.6133422851562</v>
+        <v>371.8666687011719</v>
       </c>
       <c r="E59" t="n">
-        <v>83739000</v>
+        <v>97209900</v>
       </c>
       <c r="F59" t="n">
-        <v>4.326385645814355</v>
+        <v>2.841156510551343</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7234460759832246</v>
+        <v>-0.5343739037069892</v>
       </c>
       <c r="H59" t="n">
-        <v>3.60293956983113</v>
+        <v>3.375530414258332</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B60" t="n">
-        <v>343.8533325195312</v>
+        <v>349.8699951171875</v>
       </c>
       <c r="C60" t="n">
-        <v>369.6900024414062</v>
+        <v>339.9599914550781</v>
       </c>
       <c r="D60" t="n">
-        <v>371.8666687011719</v>
+        <v>350.6666564941406</v>
       </c>
       <c r="E60" t="n">
-        <v>97209900</v>
+        <v>72924300</v>
       </c>
       <c r="F60" t="n">
-        <v>2.901039558804769</v>
+        <v>2.175743727800807</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.5615200088210894</v>
+        <v>-0.9598293491660206</v>
       </c>
       <c r="H60" t="n">
-        <v>3.462559567625858</v>
+        <v>3.135573076966828</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2017,28 +2017,28 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44575</v>
+        <v>44579</v>
       </c>
       <c r="B61" t="n">
-        <v>349.8699951171875</v>
+        <v>343.5033264160156</v>
       </c>
       <c r="C61" t="n">
-        <v>339.9599914550781</v>
+        <v>342.2033386230469</v>
       </c>
       <c r="D61" t="n">
-        <v>350.6666564941406</v>
+        <v>356.9299926757812</v>
       </c>
       <c r="E61" t="n">
-        <v>72924300</v>
+        <v>66743400</v>
       </c>
       <c r="F61" t="n">
-        <v>2.23121682539022</v>
+        <v>1.121731722671484</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.9850741937885106</v>
+        <v>-1.611073083436275</v>
       </c>
       <c r="H61" t="n">
-        <v>3.216291019178731</v>
+        <v>2.732804806107759</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2046,28 +2046,28 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B62" t="n">
-        <v>343.5033264160156</v>
+        <v>331.8833312988281</v>
       </c>
       <c r="C62" t="n">
-        <v>342.2033386230469</v>
+        <v>347.2366638183594</v>
       </c>
       <c r="D62" t="n">
-        <v>356.9299926757812</v>
+        <v>351.5566711425781</v>
       </c>
       <c r="E62" t="n">
-        <v>66743400</v>
+        <v>75442500</v>
       </c>
       <c r="F62" t="n">
-        <v>1.173117558656998</v>
+        <v>-0.6437956037743788</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.634538768417387</v>
+        <v>-2.70128032790571</v>
       </c>
       <c r="H62" t="n">
-        <v>2.807656327074384</v>
+        <v>2.057484724131331</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2075,28 +2075,28 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B63" t="n">
-        <v>331.8833312988281</v>
+        <v>332.0899963378906</v>
       </c>
       <c r="C63" t="n">
-        <v>347.2366638183594</v>
+        <v>336.57666015625</v>
       </c>
       <c r="D63" t="n">
-        <v>351.5566711425781</v>
+        <v>347.2200012207031</v>
       </c>
       <c r="E63" t="n">
-        <v>75442500</v>
+        <v>70488600</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5961976318487245</v>
+        <v>-2.003220707090009</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.723083167138487</v>
+        <v>-3.248564344977072</v>
       </c>
       <c r="H63" t="n">
-        <v>2.126885535289762</v>
+        <v>1.245343637887063</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2104,28 +2104,28 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B64" t="n">
-        <v>332.0899963378906</v>
+        <v>314.6333312988281</v>
       </c>
       <c r="C64" t="n">
-        <v>336.57666015625</v>
+        <v>332.1133422851562</v>
       </c>
       <c r="D64" t="n">
-        <v>347.2200012207031</v>
+        <v>334.8500061035156</v>
       </c>
       <c r="E64" t="n">
-        <v>70488600</v>
+        <v>103416000</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.959132861956789</v>
+        <v>-4.438023105030709</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.268814717797241</v>
+        <v>-4.546693394334218</v>
       </c>
       <c r="H64" t="n">
-        <v>1.309681855840452</v>
+        <v>0.1086702893035091</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2133,28 +2133,28 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B65" t="n">
-        <v>314.6333312988281</v>
+        <v>310</v>
       </c>
       <c r="C65" t="n">
-        <v>332.1133422851562</v>
+        <v>301.586669921875</v>
       </c>
       <c r="D65" t="n">
-        <v>334.8500061035156</v>
+        <v>311.1700134277344</v>
       </c>
       <c r="E65" t="n">
-        <v>103416000</v>
+        <v>151565700</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.397187784821881</v>
+        <v>-6.664666533465891</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.565495712529867</v>
+        <v>-5.41866945821552</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1683079277079855</v>
+        <v>-1.245997075250371</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2162,28 +2162,28 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B66" t="n">
-        <v>310</v>
+        <v>306.1333312988281</v>
       </c>
       <c r="C66" t="n">
-        <v>301.586669921875</v>
+        <v>304.7333374023438</v>
       </c>
       <c r="D66" t="n">
-        <v>311.1700134277344</v>
+        <v>317.086669921875</v>
       </c>
       <c r="E66" t="n">
-        <v>151565700</v>
+        <v>86595900</v>
       </c>
       <c r="F66" t="n">
-        <v>-6.62684484754493</v>
+        <v>-8.641689326396431</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.436122220202333</v>
+        <v>-5.916553800916848</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.190722627342598</v>
+        <v>-2.725135525479583</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2191,28 +2191,28 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B67" t="n">
-        <v>306.1333312988281</v>
+        <v>312.4700012207031</v>
       </c>
       <c r="C67" t="n">
-        <v>304.7333374023438</v>
+        <v>317.4766540527344</v>
       </c>
       <c r="D67" t="n">
-        <v>317.086669921875</v>
+        <v>329.2300109863281</v>
       </c>
       <c r="E67" t="n">
-        <v>86595900</v>
+        <v>104867400</v>
       </c>
       <c r="F67" t="n">
-        <v>-8.606659766324071</v>
+        <v>-9.586668679495631</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.932749711185179</v>
+        <v>-5.489226523212839</v>
       </c>
       <c r="H67" t="n">
-        <v>-2.673910055138893</v>
+        <v>-4.097442156282792</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2220,28 +2220,28 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B68" t="n">
-        <v>312.4700012207031</v>
+        <v>276.3666687011719</v>
       </c>
       <c r="C68" t="n">
-        <v>317.4766540527344</v>
+        <v>311.1199951171875</v>
       </c>
       <c r="D68" t="n">
-        <v>329.2300109863281</v>
+        <v>311.7966613769531</v>
       </c>
       <c r="E68" t="n">
-        <v>104867400</v>
+        <v>147109500</v>
       </c>
       <c r="F68" t="n">
-        <v>-9.554225879675812</v>
+        <v>-13.09782525479812</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.504252659629535</v>
+        <v>-7.200306478812266</v>
       </c>
       <c r="H68" t="n">
-        <v>-4.049973220046277</v>
+        <v>-5.897518775985858</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -2249,28 +2249,28 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B69" t="n">
-        <v>276.3666687011719</v>
+        <v>282.1166687011719</v>
       </c>
       <c r="C69" t="n">
-        <v>311.1199951171875</v>
+        <v>277.1866760253906</v>
       </c>
       <c r="D69" t="n">
-        <v>311.7966613769531</v>
+        <v>285.8333435058594</v>
       </c>
       <c r="E69" t="n">
-        <v>147109500</v>
+        <v>134789100</v>
       </c>
       <c r="F69" t="n">
-        <v>-13.06777883751033</v>
+        <v>-15.24077897898331</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.214244493971243</v>
+        <v>-7.474608162397965</v>
       </c>
       <c r="H69" t="n">
-        <v>-5.853534343539089</v>
+        <v>-7.766170816585349</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -2278,28 +2278,28 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="B70" t="n">
-        <v>282.1166687011719</v>
+        <v>312.239990234375</v>
       </c>
       <c r="C70" t="n">
-        <v>277.1866760253906</v>
+        <v>290.9033203125</v>
       </c>
       <c r="D70" t="n">
-        <v>285.8333435058594</v>
+        <v>312.663330078125</v>
       </c>
       <c r="E70" t="n">
-        <v>134789100</v>
+        <v>104436000</v>
       </c>
       <c r="F70" t="n">
-        <v>-15.21295247869114</v>
+        <v>-14.34304722771634</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.487534508121637</v>
+        <v>-5.261501128904793</v>
       </c>
       <c r="H70" t="n">
-        <v>-7.725417970569499</v>
+        <v>-9.081546098811547</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2307,28 +2307,28 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B71" t="n">
-        <v>312.239990234375</v>
+        <v>310.4166564941406</v>
       </c>
       <c r="C71" t="n">
-        <v>290.9033203125</v>
+        <v>311.7366638183594</v>
       </c>
       <c r="D71" t="n">
-        <v>312.663330078125</v>
+        <v>314.5666809082031</v>
       </c>
       <c r="E71" t="n">
-        <v>104436000</v>
+        <v>73138200</v>
       </c>
       <c r="F71" t="n">
-        <v>-14.31727708974597</v>
+        <v>-13.62169373545788</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.273487295341177</v>
+        <v>-3.632118109317068</v>
       </c>
       <c r="H71" t="n">
-        <v>-9.043789794404795</v>
+        <v>-9.989575626140814</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2336,28 +2336,28 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B72" t="n">
-        <v>310.4166564941406</v>
+        <v>301.8866577148438</v>
       </c>
       <c r="C72" t="n">
-        <v>311.7366638183594</v>
+        <v>309.3933410644531</v>
       </c>
       <c r="D72" t="n">
-        <v>314.5666809082031</v>
+        <v>310.5</v>
       </c>
       <c r="E72" t="n">
-        <v>73138200</v>
+        <v>66792900</v>
       </c>
       <c r="F72" t="n">
-        <v>-13.59782838435467</v>
+        <v>-13.58175350898318</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.643230871959901</v>
+        <v>-2.873742306273895</v>
       </c>
       <c r="H72" t="n">
-        <v>-9.95459751239477</v>
+        <v>-10.70801120270929</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B73" t="n">
-        <v>301.8866577148438</v>
+        <v>297.0466613769531</v>
       </c>
       <c r="C73" t="n">
-        <v>309.3933410644531</v>
+        <v>294</v>
       </c>
       <c r="D73" t="n">
-        <v>310.5</v>
+        <v>312.3333435058594</v>
       </c>
       <c r="E73" t="n">
-        <v>66792900</v>
+        <v>78855600</v>
       </c>
       <c r="F73" t="n">
-        <v>-13.55965248207627</v>
+        <v>-13.78178006495034</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.884043975745202</v>
+        <v>-2.459015089792841</v>
       </c>
       <c r="H73" t="n">
-        <v>-10.67560850633107</v>
+        <v>-11.3227649751575</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B74" t="n">
-        <v>297.0466613769531</v>
+        <v>307.7733459472656</v>
       </c>
       <c r="C74" t="n">
-        <v>294</v>
+        <v>299.0733337402344</v>
       </c>
       <c r="D74" t="n">
-        <v>312.3333435058594</v>
+        <v>312.1666564941406</v>
       </c>
       <c r="E74" t="n">
-        <v>78855600</v>
+        <v>73625400</v>
       </c>
       <c r="F74" t="n">
-        <v>-13.76131320687995</v>
+        <v>-12.92574876769231</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.4685637604391</v>
+        <v>-1.282387034027849</v>
       </c>
       <c r="H74" t="n">
-        <v>-11.29274944644085</v>
+        <v>-11.64336173366446</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -2423,28 +2423,28 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44596</v>
+        <v>44599</v>
       </c>
       <c r="B75" t="n">
-        <v>307.7733459472656</v>
+        <v>302.4466552734375</v>
       </c>
       <c r="C75" t="n">
-        <v>299.0733337402344</v>
+        <v>307.9299926757812</v>
       </c>
       <c r="D75" t="n">
-        <v>312.1666564941406</v>
+        <v>315.92333984375</v>
       </c>
       <c r="E75" t="n">
-        <v>73625400</v>
+        <v>60994500</v>
       </c>
       <c r="F75" t="n">
-        <v>-12.90679548187916</v>
+        <v>-12.53268818948851</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.291236828350648</v>
+        <v>-0.7114611646592373</v>
       </c>
       <c r="H75" t="n">
-        <v>-11.61555865352851</v>
+        <v>-11.82122702482927</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -2452,86 +2452,86 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B76" t="n">
-        <v>302.4466552734375</v>
+        <v>307.3333435058594</v>
       </c>
       <c r="C76" t="n">
-        <v>307.9299926757812</v>
+        <v>301.8433227539062</v>
       </c>
       <c r="D76" t="n">
-        <v>315.92333984375</v>
+        <v>308.7633361816406</v>
       </c>
       <c r="E76" t="n">
-        <v>60994500</v>
+        <v>50729100</v>
       </c>
       <c r="F76" t="n">
-        <v>-12.51513674274662</v>
+        <v>-11.69209080409865</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7196624713744875</v>
+        <v>0.1033089765844952</v>
       </c>
       <c r="H76" t="n">
-        <v>-11.79547427137213</v>
+        <v>-11.79539978068315</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B77" t="n">
-        <v>307.3333435058594</v>
+        <v>310.6666564941406</v>
       </c>
       <c r="C77" t="n">
-        <v>301.8433227539062</v>
+        <v>311.6666564941406</v>
       </c>
       <c r="D77" t="n">
-        <v>308.7633361816406</v>
+        <v>315.42333984375</v>
       </c>
       <c r="E77" t="n">
-        <v>50729100</v>
+        <v>52259400</v>
       </c>
       <c r="F77" t="n">
-        <v>-11.67583768080857</v>
+        <v>-10.63435459933947</v>
       </c>
       <c r="G77" t="n">
-        <v>0.09570927245085059</v>
+        <v>0.9288361450749427</v>
       </c>
       <c r="H77" t="n">
-        <v>-11.77154695325942</v>
+        <v>-11.56319074441442</v>
       </c>
       <c r="I77" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B78" t="n">
-        <v>310.6666564941406</v>
+        <v>301.5166625976562</v>
       </c>
       <c r="C78" t="n">
-        <v>311.6666564941406</v>
+        <v>302.7900085449219</v>
       </c>
       <c r="D78" t="n">
-        <v>315.42333984375</v>
+        <v>314.6033325195312</v>
       </c>
       <c r="E78" t="n">
-        <v>52259400</v>
+        <v>66126900</v>
       </c>
       <c r="F78" t="n">
-        <v>-10.61930390181118</v>
+        <v>-10.41436871442625</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9217944411585943</v>
+        <v>0.9190576239905379</v>
       </c>
       <c r="H78" t="n">
-        <v>-11.54109834296977</v>
+        <v>-11.33342633841678</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -2539,28 +2539,28 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B79" t="n">
-        <v>301.5166625976562</v>
+        <v>286.6666564941406</v>
       </c>
       <c r="C79" t="n">
-        <v>302.7900085449219</v>
+        <v>303.2099914550781</v>
       </c>
       <c r="D79" t="n">
-        <v>314.6033325195312</v>
+        <v>305.3200073242188</v>
       </c>
       <c r="E79" t="n">
-        <v>66126900</v>
+        <v>79645800</v>
       </c>
       <c r="F79" t="n">
-        <v>-10.40043160628431</v>
+        <v>-11.30794870784382</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9125333893483667</v>
+        <v>0.02038210445837052</v>
       </c>
       <c r="H79" t="n">
-        <v>-11.31296499563268</v>
+        <v>-11.32833081230219</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -2568,115 +2568,115 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44603</v>
+        <v>44606</v>
       </c>
       <c r="B80" t="n">
-        <v>286.6666564941406</v>
+        <v>291.9200134277344</v>
       </c>
       <c r="C80" t="n">
-        <v>303.2099914550781</v>
+        <v>287.1900024414062</v>
       </c>
       <c r="D80" t="n">
-        <v>305.3200073242188</v>
+        <v>299.6266784667969</v>
       </c>
       <c r="E80" t="n">
-        <v>79645800</v>
+        <v>67756500</v>
       </c>
       <c r="F80" t="n">
-        <v>-11.29504289746205</v>
+        <v>-11.46011027256702</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01433767853650281</v>
+        <v>-0.1054235682118634</v>
       </c>
       <c r="H80" t="n">
-        <v>-11.30938057599856</v>
+        <v>-11.35468670435516</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B81" t="n">
-        <v>291.9200134277344</v>
+        <v>307.4766540527344</v>
       </c>
       <c r="C81" t="n">
-        <v>287.1900024414062</v>
+        <v>300</v>
       </c>
       <c r="D81" t="n">
-        <v>299.6266784667969</v>
+        <v>307.6666564941406</v>
       </c>
       <c r="E81" t="n">
-        <v>67756500</v>
+        <v>57286200</v>
       </c>
       <c r="F81" t="n">
-        <v>-11.44815953376809</v>
+        <v>-10.2077400495146</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1110231662156274</v>
+        <v>0.9175573238724493</v>
       </c>
       <c r="H81" t="n">
-        <v>-11.33713636755246</v>
+        <v>-11.12529737338705</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B82" t="n">
-        <v>307.4766540527344</v>
+        <v>307.7966613769531</v>
       </c>
       <c r="C82" t="n">
-        <v>300</v>
+        <v>304.6833190917969</v>
       </c>
       <c r="D82" t="n">
-        <v>307.6666564941406</v>
+        <v>308.8099975585938</v>
       </c>
       <c r="E82" t="n">
-        <v>57286200</v>
+        <v>51294300</v>
       </c>
       <c r="F82" t="n">
-        <v>-10.19667377692787</v>
+        <v>-9.084683136079889</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9123700724996784</v>
+        <v>1.632491389845729</v>
       </c>
       <c r="H82" t="n">
-        <v>-11.10904384942754</v>
+        <v>-10.71717452592562</v>
       </c>
       <c r="I82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B83" t="n">
-        <v>307.7966613769531</v>
+        <v>292.1166687011719</v>
       </c>
       <c r="C83" t="n">
-        <v>304.6833190917969</v>
+        <v>304.4200134277344</v>
       </c>
       <c r="D83" t="n">
-        <v>308.8099975585938</v>
+        <v>306.1666564941406</v>
       </c>
       <c r="E83" t="n">
-        <v>51294300</v>
+        <v>55178400</v>
       </c>
       <c r="F83" t="n">
-        <v>-9.074435932720178</v>
+        <v>-9.35209171494887</v>
       </c>
       <c r="G83" t="n">
-        <v>1.627686333365894</v>
+        <v>1.0920662487814</v>
       </c>
       <c r="H83" t="n">
-        <v>-10.70212226608607</v>
+        <v>-10.44415796373027</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -2684,28 +2684,28 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B84" t="n">
-        <v>292.1166687011719</v>
+        <v>285.6600036621094</v>
       </c>
       <c r="C84" t="n">
-        <v>304.4200134277344</v>
+        <v>295.3333435058594</v>
       </c>
       <c r="D84" t="n">
-        <v>306.1666564941406</v>
+        <v>295.6233215332031</v>
       </c>
       <c r="E84" t="n">
-        <v>55178400</v>
+        <v>68501700</v>
       </c>
       <c r="F84" t="n">
-        <v>-9.342603009739776</v>
+        <v>-9.970084915583925</v>
       </c>
       <c r="G84" t="n">
-        <v>1.087615405077036</v>
+        <v>0.3792584385170752</v>
       </c>
       <c r="H84" t="n">
-        <v>-10.43021841481681</v>
+        <v>-10.349343354101</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -2713,57 +2713,57 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44610</v>
+        <v>44614</v>
       </c>
       <c r="B85" t="n">
-        <v>285.6600036621094</v>
+        <v>273.8433227539062</v>
       </c>
       <c r="C85" t="n">
-        <v>295.3333435058594</v>
+        <v>278.0433349609375</v>
       </c>
       <c r="D85" t="n">
-        <v>295.6233215332031</v>
+        <v>285.57666015625</v>
       </c>
       <c r="E85" t="n">
-        <v>68501700</v>
+        <v>83288100</v>
       </c>
       <c r="F85" t="n">
-        <v>-9.961298608700417</v>
+        <v>-11.28328963336742</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3751358448931157</v>
+        <v>-0.7471570234131324</v>
       </c>
       <c r="H85" t="n">
-        <v>-10.33643445359353</v>
+        <v>-10.53613260995428</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B86" t="n">
-        <v>273.8433227539062</v>
+        <v>254.6799926757812</v>
       </c>
       <c r="C86" t="n">
-        <v>278.0433349609375</v>
+        <v>276.8099975585938</v>
       </c>
       <c r="D86" t="n">
-        <v>285.57666015625</v>
+        <v>278.4333190917969</v>
       </c>
       <c r="E86" t="n">
-        <v>83288100</v>
+        <v>95256900</v>
       </c>
       <c r="F86" t="n">
-        <v>-11.2751537674157</v>
+        <v>-13.71226792694148</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.7509754510577356</v>
+        <v>-2.540908253589755</v>
       </c>
       <c r="H86" t="n">
-        <v>-10.52417831635797</v>
+        <v>-11.17135967335172</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -2771,28 +2771,28 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B87" t="n">
-        <v>254.6799926757812</v>
+        <v>266.92333984375</v>
       </c>
       <c r="C87" t="n">
-        <v>276.8099975585938</v>
+        <v>233.4633331298828</v>
       </c>
       <c r="D87" t="n">
-        <v>278.4333190917969</v>
+        <v>267.4933471679688</v>
       </c>
       <c r="E87" t="n">
-        <v>95256900</v>
+        <v>135322200</v>
       </c>
       <c r="F87" t="n">
-        <v>-13.70473438212952</v>
+        <v>-14.48237117002395</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.544444852617239</v>
+        <v>-2.648809197337783</v>
       </c>
       <c r="H87" t="n">
-        <v>-11.16028952951228</v>
+        <v>-11.83356197268617</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -2800,28 +2800,28 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B88" t="n">
-        <v>266.92333984375</v>
+        <v>269.9566650390625</v>
       </c>
       <c r="C88" t="n">
-        <v>233.4633331298828</v>
+        <v>269.7433471679688</v>
       </c>
       <c r="D88" t="n">
-        <v>267.4933471679688</v>
+        <v>273.1666564941406</v>
       </c>
       <c r="E88" t="n">
-        <v>135322200</v>
+        <v>76067700</v>
       </c>
       <c r="F88" t="n">
-        <v>-14.4753953816014</v>
+        <v>-14.6787124854053</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.652084681671299</v>
+        <v>-2.276120410175302</v>
       </c>
       <c r="H88" t="n">
-        <v>-11.8233106999301</v>
+        <v>-12.40259207523</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -2829,28 +2829,28 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="B89" t="n">
-        <v>269.9566650390625</v>
+        <v>290.1433410644531</v>
       </c>
       <c r="C89" t="n">
-        <v>269.7433471679688</v>
+        <v>271.6700134277344</v>
       </c>
       <c r="D89" t="n">
-        <v>273.1666564941406</v>
+        <v>292.2866821289062</v>
       </c>
       <c r="E89" t="n">
-        <v>76067700</v>
+        <v>99006900</v>
       </c>
       <c r="F89" t="n">
-        <v>-14.67225318177123</v>
+        <v>-13.05492924630937</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.279153985472897</v>
+        <v>-0.5218697368634988</v>
       </c>
       <c r="H89" t="n">
-        <v>-12.39309919629833</v>
+        <v>-12.53305950944587</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -2858,86 +2858,86 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B90" t="n">
-        <v>290.1433410644531</v>
+        <v>288.1233215332031</v>
       </c>
       <c r="C90" t="n">
-        <v>271.6700134277344</v>
+        <v>289.8933410644531</v>
       </c>
       <c r="D90" t="n">
-        <v>292.2866821289062</v>
+        <v>296.6266784667969</v>
       </c>
       <c r="E90" t="n">
-        <v>99006900</v>
+        <v>74766900</v>
       </c>
       <c r="F90" t="n">
-        <v>-13.04894820629744</v>
+        <v>-11.79510143758677</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5246792079992879</v>
+        <v>0.5903664574872849</v>
       </c>
       <c r="H90" t="n">
-        <v>-12.52426899829815</v>
+        <v>-12.38546789507405</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B91" t="n">
-        <v>288.1233215332031</v>
+        <v>293.2966613769531</v>
       </c>
       <c r="C91" t="n">
-        <v>289.8933410644531</v>
+        <v>290.7099914550781</v>
       </c>
       <c r="D91" t="n">
-        <v>296.6266784667969</v>
+        <v>295.4933471679688</v>
       </c>
       <c r="E91" t="n">
-        <v>74766900</v>
+        <v>74643300</v>
       </c>
       <c r="F91" t="n">
-        <v>-11.78956326554106</v>
+        <v>-10.26095166899972</v>
       </c>
       <c r="G91" t="n">
-        <v>0.5877645862056724</v>
+        <v>1.699612980859463</v>
       </c>
       <c r="H91" t="n">
-        <v>-12.37732785174673</v>
+        <v>-11.96056464985919</v>
       </c>
       <c r="I91" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B92" t="n">
-        <v>293.2966613769531</v>
+        <v>279.7633361816406</v>
       </c>
       <c r="C92" t="n">
-        <v>290.7099914550781</v>
+        <v>292.92333984375</v>
       </c>
       <c r="D92" t="n">
-        <v>295.4933471679688</v>
+        <v>295.4800109863281</v>
       </c>
       <c r="E92" t="n">
-        <v>74643300</v>
+        <v>61623600</v>
       </c>
       <c r="F92" t="n">
-        <v>-10.25582358635256</v>
+        <v>-10.02163005199486</v>
       </c>
       <c r="G92" t="n">
-        <v>1.697203412315339</v>
+        <v>1.551147678291461</v>
       </c>
       <c r="H92" t="n">
-        <v>-11.9530269986679</v>
+        <v>-11.57277773028632</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -2945,28 +2945,28 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B93" t="n">
-        <v>279.7633361816406</v>
+        <v>279.4299926757812</v>
       </c>
       <c r="C93" t="n">
-        <v>292.92333984375</v>
+        <v>283.0333251953125</v>
       </c>
       <c r="D93" t="n">
-        <v>295.4800109863281</v>
+        <v>285.2166748046875</v>
       </c>
       <c r="E93" t="n">
-        <v>61623600</v>
+        <v>66999600</v>
       </c>
       <c r="F93" t="n">
-        <v>-10.01688170414883</v>
+        <v>-9.746512255071138</v>
       </c>
       <c r="G93" t="n">
-        <v>1.548916235615257</v>
+        <v>1.461012380172148</v>
       </c>
       <c r="H93" t="n">
-        <v>-11.56579793976409</v>
+        <v>-11.20752463524329</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -2974,28 +2974,28 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="B94" t="n">
-        <v>279.4299926757812</v>
+        <v>268.1933288574219</v>
       </c>
       <c r="C94" t="n">
-        <v>283.0333251953125</v>
+        <v>285.4333190917969</v>
       </c>
       <c r="D94" t="n">
-        <v>285.2166748046875</v>
+        <v>288.7133178710938</v>
       </c>
       <c r="E94" t="n">
-        <v>66999600</v>
+        <v>72494100</v>
       </c>
       <c r="F94" t="n">
-        <v>-9.742115532472098</v>
+        <v>-10.31626480133821</v>
       </c>
       <c r="G94" t="n">
-        <v>1.458945925833591</v>
+        <v>0.7130078671240643</v>
       </c>
       <c r="H94" t="n">
-        <v>-11.20106145830569</v>
+        <v>-11.02927266846227</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -3003,28 +3003,28 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B95" t="n">
-        <v>268.1933288574219</v>
+        <v>274.7999877929688</v>
       </c>
       <c r="C95" t="n">
-        <v>285.4333190917969</v>
+        <v>265.1766662597656</v>
       </c>
       <c r="D95" t="n">
-        <v>288.7133178710938</v>
+        <v>283.3299865722656</v>
       </c>
       <c r="E95" t="n">
-        <v>72494100</v>
+        <v>80399100</v>
       </c>
       <c r="F95" t="n">
-        <v>-10.31219367370591</v>
+        <v>-10.11806092903845</v>
       </c>
       <c r="G95" t="n">
-        <v>0.711094227679828</v>
+        <v>0.7289693915390565</v>
       </c>
       <c r="H95" t="n">
-        <v>-11.02328790138573</v>
+        <v>-10.84703032057751</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -3032,28 +3032,28 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B96" t="n">
-        <v>274.7999877929688</v>
+        <v>286.3233337402344</v>
       </c>
       <c r="C96" t="n">
-        <v>265.1766662597656</v>
+        <v>279.82666015625</v>
       </c>
       <c r="D96" t="n">
-        <v>283.3299865722656</v>
+        <v>286.8533325195312</v>
       </c>
       <c r="E96" t="n">
-        <v>80399100</v>
+        <v>59184000</v>
       </c>
       <c r="F96" t="n">
-        <v>-10.1142912917947</v>
+        <v>-8.928226185100982</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7271972876728281</v>
+        <v>1.535043308381219</v>
       </c>
       <c r="H96" t="n">
-        <v>-10.84148857946753</v>
+        <v>-10.4632694934822</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -3061,28 +3061,28 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B97" t="n">
-        <v>286.3233337402344</v>
+        <v>279.4333190917969</v>
       </c>
       <c r="C97" t="n">
-        <v>279.82666015625</v>
+        <v>283.8166809082031</v>
       </c>
       <c r="D97" t="n">
-        <v>286.8533325195312</v>
+        <v>284.8166809082031</v>
       </c>
       <c r="E97" t="n">
-        <v>59184000</v>
+        <v>58648500</v>
       </c>
       <c r="F97" t="n">
-        <v>-8.924735717104625</v>
+        <v>-8.443904107702338</v>
       </c>
       <c r="G97" t="n">
-        <v>1.533402289890324</v>
+        <v>1.615492308623891</v>
       </c>
       <c r="H97" t="n">
-        <v>-10.45813800699495</v>
+        <v>-10.05939641632623</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -3090,28 +3090,28 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B98" t="n">
-        <v>279.4333190917969</v>
+        <v>265.1166687011719</v>
       </c>
       <c r="C98" t="n">
-        <v>283.8166809082031</v>
+        <v>280.0666809082031</v>
       </c>
       <c r="D98" t="n">
-        <v>284.8166809082031</v>
+        <v>281.2666625976562</v>
       </c>
       <c r="E98" t="n">
-        <v>58648500</v>
+        <v>67037100</v>
       </c>
       <c r="F98" t="n">
-        <v>-8.4406721394638</v>
+        <v>-9.110291638249464</v>
       </c>
       <c r="G98" t="n">
-        <v>1.61397269402492</v>
+        <v>0.7592838224614127</v>
       </c>
       <c r="H98" t="n">
-        <v>-10.05464483348872</v>
+        <v>-9.869575460710877</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -3119,57 +3119,57 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44631</v>
+        <v>44634</v>
       </c>
       <c r="B99" t="n">
-        <v>265.1166687011719</v>
+        <v>255.4566650390625</v>
       </c>
       <c r="C99" t="n">
-        <v>280.0666809082031</v>
+        <v>260.2033386230469</v>
       </c>
       <c r="D99" t="n">
-        <v>281.2666625976562</v>
+        <v>266.8999938964844</v>
       </c>
       <c r="E99" t="n">
-        <v>67037100</v>
+        <v>71152200</v>
       </c>
       <c r="F99" t="n">
-        <v>-9.107299029858154</v>
+        <v>-10.29916772624534</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7578766429044528</v>
+        <v>-0.3436738124275731</v>
       </c>
       <c r="H99" t="n">
-        <v>-9.865175672762607</v>
+        <v>-9.95549391381777</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B100" t="n">
-        <v>255.4566650390625</v>
+        <v>267.2966613769531</v>
       </c>
       <c r="C100" t="n">
-        <v>260.2033386230469</v>
+        <v>258.42333984375</v>
       </c>
       <c r="D100" t="n">
-        <v>266.8999938964844</v>
+        <v>268.5233459472656</v>
       </c>
       <c r="E100" t="n">
-        <v>71152200</v>
+        <v>66841200</v>
       </c>
       <c r="F100" t="n">
-        <v>-10.29639675429712</v>
+        <v>-10.16875278559843</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3449768652276113</v>
+        <v>-0.1706070974245257</v>
       </c>
       <c r="H100" t="n">
-        <v>-9.951419889069509</v>
+        <v>-9.998145688173903</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -3177,86 +3177,86 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B101" t="n">
-        <v>267.2966613769531</v>
+        <v>280.07666015625</v>
       </c>
       <c r="C101" t="n">
-        <v>258.42333984375</v>
+        <v>269.6666564941406</v>
       </c>
       <c r="D101" t="n">
-        <v>268.5233459472656</v>
+        <v>280.6666564941406</v>
       </c>
       <c r="E101" t="n">
-        <v>66841200</v>
+        <v>84028800</v>
       </c>
       <c r="F101" t="n">
-        <v>-10.16618703846399</v>
+        <v>-8.931205533061075</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1718137195155833</v>
+        <v>0.8535521240902622</v>
       </c>
       <c r="H101" t="n">
-        <v>-9.994373318948405</v>
+        <v>-9.784757657151337</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B102" t="n">
-        <v>280.07666015625</v>
+        <v>290.5333251953125</v>
       </c>
       <c r="C102" t="n">
-        <v>269.6666564941406</v>
+        <v>276.9966735839844</v>
       </c>
       <c r="D102" t="n">
-        <v>280.6666564941406</v>
+        <v>291.6666564941406</v>
       </c>
       <c r="E102" t="n">
-        <v>84028800</v>
+        <v>66582900</v>
       </c>
       <c r="F102" t="n">
-        <v>-8.928829813882032</v>
+        <v>-7.025687192110183</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8524348040530985</v>
+        <v>2.207256372032923</v>
       </c>
       <c r="H102" t="n">
-        <v>-9.781264617935131</v>
+        <v>-9.232943564143106</v>
       </c>
       <c r="I102" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B103" t="n">
-        <v>290.5333251953125</v>
+        <v>301.7966613769531</v>
       </c>
       <c r="C103" t="n">
-        <v>276.9966735839844</v>
+        <v>291.4966735839844</v>
       </c>
       <c r="D103" t="n">
-        <v>291.6666564941406</v>
+        <v>302.6166687011719</v>
       </c>
       <c r="E103" t="n">
-        <v>66582900</v>
+        <v>100414200</v>
       </c>
       <c r="F103" t="n">
-        <v>-7.023487428955207</v>
+        <v>-4.554195153318517</v>
       </c>
       <c r="G103" t="n">
-        <v>2.206221751183939</v>
+        <v>3.742998728659671</v>
       </c>
       <c r="H103" t="n">
-        <v>-9.229709180139146</v>
+        <v>-8.297193881978188</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -3264,28 +3264,28 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44638</v>
+        <v>44641</v>
       </c>
       <c r="B104" t="n">
-        <v>301.7966613769531</v>
+        <v>307.0533447265625</v>
       </c>
       <c r="C104" t="n">
-        <v>291.4966735839844</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="D104" t="n">
-        <v>302.6166687011719</v>
+        <v>314.2833251953125</v>
       </c>
       <c r="E104" t="n">
-        <v>100414200</v>
+        <v>81981600</v>
       </c>
       <c r="F104" t="n">
-        <v>-4.552158315973372</v>
+        <v>-2.146604768503607</v>
       </c>
       <c r="G104" t="n">
-        <v>3.742040691332619</v>
+        <v>4.920471290779665</v>
       </c>
       <c r="H104" t="n">
-        <v>-8.294199007305991</v>
+        <v>-7.067076059283273</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -3293,28 +3293,28 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B105" t="n">
-        <v>307.0533447265625</v>
+        <v>331.32666015625</v>
       </c>
       <c r="C105" t="n">
-        <v>304.9933471679688</v>
+        <v>310</v>
       </c>
       <c r="D105" t="n">
-        <v>314.2833251953125</v>
+        <v>332.6199951171875</v>
       </c>
       <c r="E105" t="n">
-        <v>81981600</v>
+        <v>105868500</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.144718791406547</v>
+        <v>1.700479581722561</v>
       </c>
       <c r="G105" t="n">
-        <v>4.919584172719556</v>
+        <v>7.014044512804667</v>
       </c>
       <c r="H105" t="n">
-        <v>-7.064302964126102</v>
+        <v>-5.313564931082106</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -3322,28 +3322,28 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B106" t="n">
-        <v>331.32666015625</v>
+        <v>333.0366821289062</v>
       </c>
       <c r="C106" t="n">
-        <v>310</v>
+        <v>326.6466674804688</v>
       </c>
       <c r="D106" t="n">
-        <v>332.6199951171875</v>
+        <v>346.8999938964844</v>
       </c>
       <c r="E106" t="n">
-        <v>105868500</v>
+        <v>120676200</v>
       </c>
       <c r="F106" t="n">
-        <v>1.702225870852089</v>
+        <v>4.831610331636114</v>
       </c>
       <c r="G106" t="n">
-        <v>7.013223067982554</v>
+        <v>8.116140210174576</v>
       </c>
       <c r="H106" t="n">
-        <v>-5.310997197130464</v>
+        <v>-3.284529878538462</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -3351,28 +3351,28 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B107" t="n">
-        <v>333.0366821289062</v>
+        <v>337.9733276367188</v>
       </c>
       <c r="C107" t="n">
-        <v>326.6466674804688</v>
+        <v>336.57666015625</v>
       </c>
       <c r="D107" t="n">
-        <v>346.8999938964844</v>
+        <v>341.4966735839844</v>
       </c>
       <c r="E107" t="n">
-        <v>120676200</v>
+        <v>68920800</v>
       </c>
       <c r="F107" t="n">
-        <v>4.833227277894991</v>
+        <v>7.623520841945094</v>
       </c>
       <c r="G107" t="n">
-        <v>8.115379580020365</v>
+        <v>8.726440576386846</v>
       </c>
       <c r="H107" t="n">
-        <v>-3.282152302125374</v>
+        <v>-1.102919734441751</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -3380,28 +3380,28 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B108" t="n">
-        <v>337.9733276367188</v>
+        <v>336.8800048828125</v>
       </c>
       <c r="C108" t="n">
-        <v>336.57666015625</v>
+        <v>336</v>
       </c>
       <c r="D108" t="n">
-        <v>341.4966735839844</v>
+        <v>340.6000061035156</v>
       </c>
       <c r="E108" t="n">
-        <v>68920800</v>
+        <v>62031600</v>
       </c>
       <c r="F108" t="n">
-        <v>7.625018024459109</v>
+        <v>9.636820756069881</v>
       </c>
       <c r="G108" t="n">
-        <v>8.725736261267587</v>
+        <v>8.591792392409305</v>
       </c>
       <c r="H108" t="n">
-        <v>-1.100718236808477</v>
+        <v>1.045028363660575</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -3409,28 +3409,28 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B109" t="n">
-        <v>336.8800048828125</v>
+        <v>363.9466552734375</v>
       </c>
       <c r="C109" t="n">
-        <v>336</v>
+        <v>355.0333251953125</v>
       </c>
       <c r="D109" t="n">
-        <v>340.6000061035156</v>
+        <v>365.9599914550781</v>
       </c>
       <c r="E109" t="n">
-        <v>62031600</v>
+        <v>102506100</v>
       </c>
       <c r="F109" t="n">
-        <v>9.63820704468111</v>
+        <v>13.26353415862701</v>
       </c>
       <c r="G109" t="n">
-        <v>8.591140225191669</v>
+        <v>9.774804635973148</v>
       </c>
       <c r="H109" t="n">
-        <v>1.04706681948944</v>
+        <v>3.488729522653863</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -3438,28 +3438,28 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B110" t="n">
-        <v>363.9466552734375</v>
+        <v>366.5233459472656</v>
       </c>
       <c r="C110" t="n">
-        <v>355.0333251953125</v>
+        <v>369.3299865722656</v>
       </c>
       <c r="D110" t="n">
-        <v>365.9599914550781</v>
+        <v>371.5899963378906</v>
       </c>
       <c r="E110" t="n">
-        <v>102506100</v>
+        <v>73614900</v>
       </c>
       <c r="F110" t="n">
-        <v>13.26481776639002</v>
+        <v>16.15937287069511</v>
       </c>
       <c r="G110" t="n">
-        <v>9.774200757520466</v>
+        <v>10.136514678433</v>
       </c>
       <c r="H110" t="n">
-        <v>3.490617008869557</v>
+        <v>6.022858192262112</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -3467,28 +3467,28 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B111" t="n">
-        <v>366.5233459472656</v>
+        <v>364.663330078125</v>
       </c>
       <c r="C111" t="n">
-        <v>369.3299865722656</v>
+        <v>363.7233276367188</v>
       </c>
       <c r="D111" t="n">
-        <v>371.5899963378906</v>
+        <v>371.3166809082031</v>
       </c>
       <c r="E111" t="n">
-        <v>73614900</v>
+        <v>59865000</v>
       </c>
       <c r="F111" t="n">
-        <v>16.1605614024914</v>
+        <v>18.09566264277487</v>
       </c>
       <c r="G111" t="n">
-        <v>10.13595551489747</v>
+        <v>9.658243560410204</v>
       </c>
       <c r="H111" t="n">
-        <v>6.024605887593926</v>
+        <v>8.437419082364665</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -3496,28 +3496,28 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B112" t="n">
-        <v>364.663330078125</v>
+        <v>359.2000122070312</v>
       </c>
       <c r="C112" t="n">
-        <v>363.7233276367188</v>
+        <v>364.8566589355469</v>
       </c>
       <c r="D112" t="n">
-        <v>371.3166809082031</v>
+        <v>367.7133178710938</v>
       </c>
       <c r="E112" t="n">
-        <v>59865000</v>
+        <v>48992700</v>
       </c>
       <c r="F112" t="n">
-        <v>18.09676314033175</v>
+        <v>18.97066018226263</v>
       </c>
       <c r="G112" t="n">
-        <v>9.657725802190257</v>
+        <v>8.426592879918374</v>
       </c>
       <c r="H112" t="n">
-        <v>8.439037338141489</v>
+        <v>10.54406730234426</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -3525,28 +3525,28 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B113" t="n">
-        <v>359.2000122070312</v>
+        <v>361.5299987792969</v>
       </c>
       <c r="C113" t="n">
-        <v>364.8566589355469</v>
+        <v>360.3833312988281</v>
       </c>
       <c r="D113" t="n">
-        <v>367.7133178710938</v>
+        <v>364.9166564941406</v>
       </c>
       <c r="E113" t="n">
-        <v>48992700</v>
+        <v>54263100</v>
       </c>
       <c r="F113" t="n">
-        <v>18.97167916584209</v>
+        <v>19.62587758013592</v>
       </c>
       <c r="G113" t="n">
-        <v>8.42611346216048</v>
+        <v>7.265448222233328</v>
       </c>
       <c r="H113" t="n">
-        <v>10.54556570368161</v>
+        <v>12.36042935790259</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -3554,28 +3554,28 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="B114" t="n">
-        <v>361.5299987792969</v>
+        <v>381.8166809082031</v>
       </c>
       <c r="C114" t="n">
-        <v>360.3833312988281</v>
+        <v>363.1266784667969</v>
       </c>
       <c r="D114" t="n">
-        <v>364.9166564941406</v>
+        <v>383.3033447265625</v>
       </c>
       <c r="E114" t="n">
-        <v>54263100</v>
+        <v>82035900</v>
       </c>
       <c r="F114" t="n">
-        <v>19.62682108713955</v>
+        <v>21.53387864481965</v>
       </c>
       <c r="G114" t="n">
-        <v>7.265004306766347</v>
+        <v>7.338759429533646</v>
       </c>
       <c r="H114" t="n">
-        <v>12.3618167803732</v>
+        <v>14.19511921528601</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -3583,28 +3583,28 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B115" t="n">
-        <v>381.8166809082031</v>
+        <v>363.7533264160156</v>
       </c>
       <c r="C115" t="n">
-        <v>363.1266784667969</v>
+        <v>378.7666625976562</v>
       </c>
       <c r="D115" t="n">
-        <v>383.3033447265625</v>
+        <v>384.2900085449219</v>
       </c>
       <c r="E115" t="n">
-        <v>82035900</v>
+        <v>80075100</v>
       </c>
       <c r="F115" t="n">
-        <v>21.53475226553729</v>
+        <v>21.34239959190654</v>
       </c>
       <c r="G115" t="n">
-        <v>7.338348388131273</v>
+        <v>5.717824301296428</v>
       </c>
       <c r="H115" t="n">
-        <v>14.19640387740602</v>
+        <v>15.62457529061011</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -3612,28 +3612,28 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="B116" t="n">
-        <v>363.7533264160156</v>
+        <v>348.586669921875</v>
       </c>
       <c r="C116" t="n">
-        <v>378.7666625976562</v>
+        <v>357.8233337402344</v>
       </c>
       <c r="D116" t="n">
-        <v>384.2900085449219</v>
+        <v>359.6666564941406</v>
       </c>
       <c r="E116" t="n">
-        <v>80075100</v>
+        <v>89348400</v>
       </c>
       <c r="F116" t="n">
-        <v>21.34320850261992</v>
+        <v>19.7392864302123</v>
       </c>
       <c r="G116" t="n">
-        <v>5.717443700171117</v>
+        <v>3.29176891168175</v>
       </c>
       <c r="H116" t="n">
-        <v>15.6257648024488</v>
+        <v>16.44751751853055</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -3641,28 +3641,28 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="B117" t="n">
-        <v>348.586669921875</v>
+        <v>352.4200134277344</v>
       </c>
       <c r="C117" t="n">
-        <v>357.8233337402344</v>
+        <v>350.7966613769531</v>
       </c>
       <c r="D117" t="n">
-        <v>359.6666564941406</v>
+        <v>358.8633422851562</v>
       </c>
       <c r="E117" t="n">
-        <v>89348400</v>
+        <v>79447200</v>
       </c>
       <c r="F117" t="n">
-        <v>19.74003542384867</v>
+        <v>18.564130740689</v>
       </c>
       <c r="G117" t="n">
-        <v>3.291416497119894</v>
+        <v>1.693290577726753</v>
       </c>
       <c r="H117" t="n">
-        <v>16.44861892672877</v>
+        <v>16.87084016296224</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -3670,57 +3670,57 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="B118" t="n">
-        <v>352.4200134277344</v>
+        <v>341.8299865722656</v>
       </c>
       <c r="C118" t="n">
-        <v>350.7966613769531</v>
+        <v>347.7366638183594</v>
       </c>
       <c r="D118" t="n">
-        <v>358.8633422851562</v>
+        <v>349.4800109863281</v>
       </c>
       <c r="E118" t="n">
-        <v>79447200</v>
+        <v>55013700</v>
       </c>
       <c r="F118" t="n">
-        <v>18.56482425520647</v>
+        <v>16.58707920355278</v>
       </c>
       <c r="G118" t="n">
-        <v>1.692964262782159</v>
+        <v>-0.2270087675275754</v>
       </c>
       <c r="H118" t="n">
-        <v>16.87185999242432</v>
+        <v>16.81408797108035</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B119" t="n">
-        <v>341.8299865722656</v>
+        <v>325.3099975585938</v>
       </c>
       <c r="C119" t="n">
-        <v>347.7366638183594</v>
+        <v>326.7999877929688</v>
       </c>
       <c r="D119" t="n">
-        <v>349.4800109863281</v>
+        <v>336.1566772460938</v>
       </c>
       <c r="E119" t="n">
-        <v>55013700</v>
+        <v>59357100</v>
       </c>
       <c r="F119" t="n">
-        <v>16.58772134822482</v>
+        <v>13.53124677646025</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.2273109153595989</v>
+        <v>-2.626272955696081</v>
       </c>
       <c r="H119" t="n">
-        <v>16.81503226358442</v>
+        <v>16.15751973215633</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -3728,28 +3728,28 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B120" t="n">
-        <v>325.3099975585938</v>
+        <v>328.9833374023438</v>
       </c>
       <c r="C120" t="n">
-        <v>326.7999877929688</v>
+        <v>332.5466613769531</v>
       </c>
       <c r="D120" t="n">
-        <v>336.1566772460938</v>
+        <v>340.3966674804688</v>
       </c>
       <c r="E120" t="n">
-        <v>59357100</v>
+        <v>65976000</v>
       </c>
       <c r="F120" t="n">
-        <v>13.53184135621439</v>
+        <v>11.27590378805201</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.626552725896026</v>
+        <v>-3.905292755283462</v>
       </c>
       <c r="H120" t="n">
-        <v>16.15839408211041</v>
+        <v>15.18119654333547</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -3757,28 +3757,28 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="B121" t="n">
-        <v>328.9833374023438</v>
+        <v>340.7900085449219</v>
       </c>
       <c r="C121" t="n">
-        <v>332.5466613769531</v>
+        <v>327.0266723632812</v>
       </c>
       <c r="D121" t="n">
-        <v>340.3966674804688</v>
+        <v>342.0799865722656</v>
       </c>
       <c r="E121" t="n">
-        <v>65976000</v>
+        <v>55121100</v>
       </c>
       <c r="F121" t="n">
-        <v>11.27645432600718</v>
+        <v>10.32223955736174</v>
       </c>
       <c r="G121" t="n">
-        <v>-3.905551804882583</v>
+        <v>-3.887165588778982</v>
       </c>
       <c r="H121" t="n">
-        <v>15.18200613088977</v>
+        <v>14.20940514614072</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -3786,28 +3786,28 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="B122" t="n">
-        <v>340.7900085449219</v>
+        <v>328.3333435058594</v>
       </c>
       <c r="C122" t="n">
-        <v>327.0266723632812</v>
+        <v>333.0966796875</v>
       </c>
       <c r="D122" t="n">
-        <v>342.0799865722656</v>
+        <v>337.5700073242188</v>
       </c>
       <c r="E122" t="n">
-        <v>55121100</v>
+        <v>58422300</v>
       </c>
       <c r="F122" t="n">
-        <v>10.32274931569719</v>
+        <v>8.463740290230646</v>
       </c>
       <c r="G122" t="n">
-        <v>-3.887405452154058</v>
+        <v>-4.596531884728062</v>
       </c>
       <c r="H122" t="n">
-        <v>14.21015476785125</v>
+        <v>13.06027217495871</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -3815,28 +3815,28 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44665</v>
+        <v>44669</v>
       </c>
       <c r="B123" t="n">
-        <v>328.3333435058594</v>
+        <v>334.7633361816406</v>
       </c>
       <c r="C123" t="n">
-        <v>333.0966796875</v>
+        <v>329.6766662597656</v>
       </c>
       <c r="D123" t="n">
-        <v>337.5700073242188</v>
+        <v>338.3066711425781</v>
       </c>
       <c r="E123" t="n">
-        <v>58422300</v>
+        <v>51715200</v>
       </c>
       <c r="F123" t="n">
-        <v>8.464212289509703</v>
+        <v>7.424132128691895</v>
       </c>
       <c r="G123" t="n">
-        <v>-4.59675398267324</v>
+        <v>-4.508912037013452</v>
       </c>
       <c r="H123" t="n">
-        <v>13.06096627218294</v>
+        <v>11.93304416570535</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -3844,28 +3844,28 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="B124" t="n">
-        <v>334.7633361816406</v>
+        <v>342.7166748046875</v>
       </c>
       <c r="C124" t="n">
-        <v>329.6766662597656</v>
+        <v>335.0199890136719</v>
       </c>
       <c r="D124" t="n">
-        <v>338.3066711425781</v>
+        <v>344.9800109863281</v>
       </c>
       <c r="E124" t="n">
-        <v>51715200</v>
+        <v>49847700</v>
       </c>
       <c r="F124" t="n">
-        <v>7.424569165755543</v>
+        <v>7.159473178570465</v>
       </c>
       <c r="G124" t="n">
-        <v>-4.50911768514192</v>
+        <v>-3.818856789707905</v>
       </c>
       <c r="H124" t="n">
-        <v>11.93368685089746</v>
+        <v>10.97832996827837</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -3873,28 +3873,28 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B125" t="n">
-        <v>342.7166748046875</v>
+        <v>325.7333374023438</v>
       </c>
       <c r="C125" t="n">
-        <v>335.0199890136719</v>
+        <v>343.3333435058594</v>
       </c>
       <c r="D125" t="n">
-        <v>344.9800109863281</v>
+        <v>344.6666564941406</v>
       </c>
       <c r="E125" t="n">
-        <v>49847700</v>
+        <v>70711200</v>
       </c>
       <c r="F125" t="n">
-        <v>7.159877843105676</v>
+        <v>5.515733716281943</v>
       </c>
       <c r="G125" t="n">
-        <v>-3.81904720623343</v>
+        <v>-4.370077001597142</v>
       </c>
       <c r="H125" t="n">
-        <v>10.97892504933911</v>
+        <v>9.885810717879085</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -3902,28 +3902,28 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B126" t="n">
-        <v>325.7333374023438</v>
+        <v>336.260009765625</v>
       </c>
       <c r="C126" t="n">
-        <v>343.3333435058594</v>
+        <v>358.2433471679688</v>
       </c>
       <c r="D126" t="n">
-        <v>344.6666564941406</v>
+        <v>364.0733337402344</v>
       </c>
       <c r="E126" t="n">
-        <v>70711200</v>
+        <v>105416400</v>
       </c>
       <c r="F126" t="n">
-        <v>5.516108406163312</v>
+        <v>5.004780836445491</v>
       </c>
       <c r="G126" t="n">
-        <v>-4.370253314540635</v>
+        <v>-3.904823905146875</v>
       </c>
       <c r="H126" t="n">
-        <v>9.886361720703947</v>
+        <v>8.909604741592366</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -3931,28 +3931,28 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B127" t="n">
-        <v>336.260009765625</v>
+        <v>335.0166625976562</v>
       </c>
       <c r="C127" t="n">
-        <v>358.2433471679688</v>
+        <v>338.3033447265625</v>
       </c>
       <c r="D127" t="n">
-        <v>364.0733337402344</v>
+        <v>344.9500122070312</v>
       </c>
       <c r="E127" t="n">
-        <v>105416400</v>
+        <v>69696600</v>
       </c>
       <c r="F127" t="n">
-        <v>5.005127771941318</v>
+        <v>4.448242699682055</v>
       </c>
       <c r="G127" t="n">
-        <v>-3.904987159010105</v>
+        <v>-3.569089633528248</v>
       </c>
       <c r="H127" t="n">
-        <v>8.910114930951423</v>
+        <v>8.017332333210303</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -3960,28 +3960,28 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="B128" t="n">
-        <v>335.0166625976562</v>
+        <v>332.67333984375</v>
       </c>
       <c r="C128" t="n">
-        <v>338.3033447265625</v>
+        <v>326.3233337402344</v>
       </c>
       <c r="D128" t="n">
-        <v>344.9500122070312</v>
+        <v>336.2066650390625</v>
       </c>
       <c r="E128" t="n">
-        <v>69696600</v>
+        <v>68341200</v>
       </c>
       <c r="F128" t="n">
-        <v>4.448563936608139</v>
+        <v>3.774584592793133</v>
       </c>
       <c r="G128" t="n">
-        <v>-3.569240795474627</v>
+        <v>-3.394198192333738</v>
       </c>
       <c r="H128" t="n">
-        <v>8.017804732082766</v>
+        <v>7.16878278512687</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -3989,28 +3989,28 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B129" t="n">
-        <v>332.67333984375</v>
+        <v>292.1400146484375</v>
       </c>
       <c r="C129" t="n">
-        <v>326.3233337402344</v>
+        <v>331.8099975585938</v>
       </c>
       <c r="D129" t="n">
-        <v>336.2066650390625</v>
+        <v>333.3333435058594</v>
       </c>
       <c r="E129" t="n">
-        <v>68341200</v>
+        <v>136133700</v>
       </c>
       <c r="F129" t="n">
-        <v>3.774882034692439</v>
+        <v>-0.02965308023937041</v>
       </c>
       <c r="G129" t="n">
-        <v>-3.394338157912262</v>
+        <v>-5.758748692292992</v>
       </c>
       <c r="H129" t="n">
-        <v>7.169220192604701</v>
+        <v>5.729095612053622</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -4018,28 +4018,28 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B130" t="n">
-        <v>292.1400146484375</v>
+        <v>293.836669921875</v>
       </c>
       <c r="C130" t="n">
-        <v>331.8099975585938</v>
+        <v>299.5266723632812</v>
       </c>
       <c r="D130" t="n">
-        <v>333.3333435058594</v>
+        <v>306</v>
       </c>
       <c r="E130" t="n">
-        <v>136133700</v>
+        <v>76956300</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.02937767081857601</v>
+        <v>-2.874497524987873</v>
       </c>
       <c r="G130" t="n">
-        <v>-5.758878290738622</v>
+        <v>-6.882874509633196</v>
       </c>
       <c r="H130" t="n">
-        <v>5.729500619920046</v>
+        <v>4.008376984645323</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -4047,28 +4047,28 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B131" t="n">
-        <v>293.836669921875</v>
+        <v>292.5033264160156</v>
       </c>
       <c r="C131" t="n">
-        <v>299.5266723632812</v>
+        <v>299.9933471679688</v>
       </c>
       <c r="D131" t="n">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E131" t="n">
-        <v>76956300</v>
+        <v>124948500</v>
       </c>
       <c r="F131" t="n">
-        <v>-2.874242516049321</v>
+        <v>-5.176970033164309</v>
       </c>
       <c r="G131" t="n">
-        <v>-6.882994508775494</v>
+        <v>-7.348277614247706</v>
       </c>
       <c r="H131" t="n">
-        <v>4.008751992726173</v>
+        <v>2.171307581083397</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -4076,28 +4076,28 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="B132" t="n">
-        <v>292.5033264160156</v>
+        <v>290.2533264160156</v>
       </c>
       <c r="C132" t="n">
-        <v>299.9933471679688</v>
+        <v>300.75</v>
       </c>
       <c r="D132" t="n">
-        <v>300</v>
+        <v>311.4666748046875</v>
       </c>
       <c r="E132" t="n">
-        <v>124948500</v>
+        <v>88133100</v>
       </c>
       <c r="F132" t="n">
-        <v>-5.176733913594376</v>
+        <v>-7.101391855431757</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.348388725056439</v>
+        <v>-7.418159549212123</v>
       </c>
       <c r="H132" t="n">
-        <v>2.171654811462063</v>
+        <v>0.3167676937803658</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -4105,28 +4105,28 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="B133" t="n">
-        <v>290.2533264160156</v>
+        <v>300.9800109863281</v>
       </c>
       <c r="C133" t="n">
-        <v>300.75</v>
+        <v>286.92333984375</v>
       </c>
       <c r="D133" t="n">
-        <v>311.4666748046875</v>
+        <v>302.1199951171875</v>
       </c>
       <c r="E133" t="n">
-        <v>88133100</v>
+        <v>75781500</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.101173226046058</v>
+        <v>-7.672512270625703</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.418262430006497</v>
+        <v>-6.391423971524855</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3170892039604389</v>
+        <v>-1.281088299100848</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="B134" t="n">
-        <v>300.9800109863281</v>
+        <v>303.0833435058594</v>
       </c>
       <c r="C134" t="n">
-        <v>286.92333984375</v>
+        <v>301.0599975585938</v>
       </c>
       <c r="D134" t="n">
-        <v>302.1199951171875</v>
+        <v>308.0266723632812</v>
       </c>
       <c r="E134" t="n">
-        <v>75781500</v>
+        <v>63709500</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.672309835878764</v>
+        <v>-7.864748038571406</v>
       </c>
       <c r="G134" t="n">
-        <v>-6.391519231871362</v>
+        <v>-5.266927791576446</v>
       </c>
       <c r="H134" t="n">
-        <v>-1.280790604007402</v>
+        <v>-2.59782024699496</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -4163,28 +4163,28 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="B135" t="n">
-        <v>303.0833435058594</v>
+        <v>317.5400085449219</v>
       </c>
       <c r="C135" t="n">
-        <v>301.0599975585938</v>
+        <v>301.3133239746094</v>
       </c>
       <c r="D135" t="n">
-        <v>308.0266723632812</v>
+        <v>318.5</v>
       </c>
       <c r="E135" t="n">
-        <v>63709500</v>
+        <v>81643800</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.864560598880416</v>
+        <v>-6.772495112466117</v>
       </c>
       <c r="G135" t="n">
-        <v>-5.267015995898412</v>
+        <v>-3.339739892376926</v>
       </c>
       <c r="H135" t="n">
-        <v>-2.597544602982005</v>
+        <v>-3.432755220089192</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -4192,28 +4192,28 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="B136" t="n">
-        <v>317.5400085449219</v>
+        <v>291.0933227539062</v>
       </c>
       <c r="C136" t="n">
-        <v>301.3133239746094</v>
+        <v>313.0066528320312</v>
       </c>
       <c r="D136" t="n">
-        <v>318.5</v>
+        <v>315.2000122070312</v>
       </c>
       <c r="E136" t="n">
-        <v>81643800</v>
+        <v>92519100</v>
       </c>
       <c r="F136" t="n">
-        <v>-6.772321557103169</v>
+        <v>-7.949269092578959</v>
       </c>
       <c r="G136" t="n">
-        <v>-3.339821563296931</v>
+        <v>-3.613211097991814</v>
       </c>
       <c r="H136" t="n">
-        <v>-3.432499993806238</v>
+        <v>-4.336057994587145</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -4221,28 +4221,28 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="B137" t="n">
-        <v>291.0933227539062</v>
+        <v>288.5499877929688</v>
       </c>
       <c r="C137" t="n">
-        <v>313.0066528320312</v>
+        <v>295.6666564941406</v>
       </c>
       <c r="D137" t="n">
-        <v>315.2000122070312</v>
+        <v>296</v>
       </c>
       <c r="E137" t="n">
-        <v>92519100</v>
+        <v>72903000</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.949108393089716</v>
+        <v>-8.983540166843909</v>
       </c>
       <c r="G137" t="n">
-        <v>-3.613286719426783</v>
+        <v>-3.71798573780541</v>
       </c>
       <c r="H137" t="n">
-        <v>-4.335821673662934</v>
+        <v>-5.265554429038499</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -4250,28 +4250,28 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="B138" t="n">
-        <v>288.5499877929688</v>
+        <v>262.3699951171875</v>
       </c>
       <c r="C138" t="n">
-        <v>295.6666564941406</v>
+        <v>278.8166809082031</v>
       </c>
       <c r="D138" t="n">
-        <v>296</v>
+        <v>281.8766784667969</v>
       </c>
       <c r="E138" t="n">
-        <v>72903000</v>
+        <v>90810300</v>
       </c>
       <c r="F138" t="n">
-        <v>-8.983391370953484</v>
+        <v>-11.77992244512694</v>
       </c>
       <c r="G138" t="n">
-        <v>-3.71805575783244</v>
+        <v>-5.211494412870755</v>
       </c>
       <c r="H138" t="n">
-        <v>-5.265335613121044</v>
+        <v>-6.568428032256188</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -4279,28 +4279,28 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B139" t="n">
-        <v>262.3699951171875</v>
+        <v>266.6799926757812</v>
       </c>
       <c r="C139" t="n">
-        <v>278.8166809082031</v>
+        <v>273.1033325195312</v>
       </c>
       <c r="D139" t="n">
-        <v>281.8766784667969</v>
+        <v>275.1199951171875</v>
       </c>
       <c r="E139" t="n">
-        <v>90810300</v>
+        <v>84401700</v>
       </c>
       <c r="F139" t="n">
-        <v>-11.77978467109767</v>
+        <v>-13.49275864201212</v>
       </c>
       <c r="G139" t="n">
-        <v>-5.211559246381303</v>
+        <v>-5.539464487804745</v>
       </c>
       <c r="H139" t="n">
-        <v>-6.56822542471637</v>
+        <v>-7.953294154207375</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -4308,28 +4308,28 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B140" t="n">
-        <v>266.6799926757812</v>
+        <v>244.6666717529297</v>
       </c>
       <c r="C140" t="n">
-        <v>273.1033325195312</v>
+        <v>265</v>
       </c>
       <c r="D140" t="n">
-        <v>275.1199951171875</v>
+        <v>269.92333984375</v>
       </c>
       <c r="E140" t="n">
-        <v>84401700</v>
+        <v>97224600</v>
       </c>
       <c r="F140" t="n">
-        <v>-13.49263107341852</v>
+        <v>-16.43700908479053</v>
       </c>
       <c r="G140" t="n">
-        <v>-5.539524518961722</v>
+        <v>-6.786971944466526</v>
       </c>
       <c r="H140" t="n">
-        <v>-7.9531065544568</v>
+        <v>-9.650037140324006</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -4337,28 +4337,28 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B141" t="n">
-        <v>244.6666717529297</v>
+        <v>242.6666717529297</v>
       </c>
       <c r="C141" t="n">
-        <v>265</v>
+        <v>233.6666717529297</v>
       </c>
       <c r="D141" t="n">
-        <v>269.92333984375</v>
+        <v>253.2200012207031</v>
       </c>
       <c r="E141" t="n">
-        <v>97224600</v>
+        <v>140313000</v>
       </c>
       <c r="F141" t="n">
-        <v>-16.43689096568181</v>
+        <v>-18.71598582389277</v>
       </c>
       <c r="G141" t="n">
-        <v>-6.787027528980008</v>
+        <v>-7.252758946855007</v>
       </c>
       <c r="H141" t="n">
-        <v>-9.649863436701803</v>
+        <v>-11.46322687703776</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -4366,28 +4366,28 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="B142" t="n">
-        <v>242.6666717529297</v>
+        <v>256.5299987792969</v>
       </c>
       <c r="C142" t="n">
-        <v>233.6666717529297</v>
+        <v>257.82666015625</v>
       </c>
       <c r="D142" t="n">
-        <v>253.2200012207031</v>
+        <v>262.4500122070312</v>
       </c>
       <c r="E142" t="n">
-        <v>140313000</v>
+        <v>92150700</v>
       </c>
       <c r="F142" t="n">
-        <v>-18.71587645431339</v>
+        <v>-19.18231489289354</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.252810414089268</v>
+        <v>-6.175270412684627</v>
       </c>
       <c r="H142" t="n">
-        <v>-11.46306604022412</v>
+        <v>-13.00704448020892</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -4395,28 +4395,28 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="B143" t="n">
-        <v>256.5299987792969</v>
+        <v>241.4566650390625</v>
       </c>
       <c r="C143" t="n">
-        <v>257.82666015625</v>
+        <v>255.7200012207031</v>
       </c>
       <c r="D143" t="n">
-        <v>262.4500122070312</v>
+        <v>256.586669921875</v>
       </c>
       <c r="E143" t="n">
-        <v>92150700</v>
+        <v>86098500</v>
       </c>
       <c r="F143" t="n">
-        <v>-19.18221362473548</v>
+        <v>-20.53150172802231</v>
       </c>
       <c r="G143" t="n">
-        <v>-6.175318067609089</v>
+        <v>-6.01956579825071</v>
       </c>
       <c r="H143" t="n">
-        <v>-13.00689555712639</v>
+        <v>-14.5119359297716</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -4424,28 +4424,28 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B144" t="n">
-        <v>241.4566650390625</v>
+        <v>253.8699951171875</v>
       </c>
       <c r="C144" t="n">
-        <v>255.7200012207031</v>
+        <v>249.1199951171875</v>
       </c>
       <c r="D144" t="n">
-        <v>256.586669921875</v>
+        <v>254.82666015625</v>
       </c>
       <c r="E144" t="n">
-        <v>86098500</v>
+        <v>80236200</v>
       </c>
       <c r="F144" t="n">
-        <v>-20.5314079611847</v>
+        <v>-20.36434255583094</v>
       </c>
       <c r="G144" t="n">
-        <v>-6.019609923246643</v>
+        <v>-4.681925300847478</v>
       </c>
       <c r="H144" t="n">
-        <v>-14.51179803793806</v>
+        <v>-15.68241725498347</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -4453,28 +4453,28 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="B145" t="n">
-        <v>253.8699951171875</v>
+        <v>236.6033325195312</v>
       </c>
       <c r="C145" t="n">
-        <v>249.1199951171875</v>
+        <v>248.17333984375</v>
       </c>
       <c r="D145" t="n">
-        <v>254.82666015625</v>
+        <v>253.5</v>
       </c>
       <c r="E145" t="n">
-        <v>80236200</v>
+        <v>87811800</v>
       </c>
       <c r="F145" t="n">
-        <v>-20.36425573466425</v>
+        <v>-21.37870269873241</v>
       </c>
       <c r="G145" t="n">
-        <v>-4.681966157380959</v>
+        <v>-4.557028354999154</v>
       </c>
       <c r="H145" t="n">
-        <v>-15.6822895772833</v>
+        <v>-16.82167434373326</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -4482,28 +4482,28 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="B146" t="n">
-        <v>236.6033325195312</v>
+        <v>236.4733276367188</v>
       </c>
       <c r="C146" t="n">
-        <v>248.17333984375</v>
+        <v>235.6666717529297</v>
       </c>
       <c r="D146" t="n">
-        <v>253.5</v>
+        <v>244.6666717529297</v>
       </c>
       <c r="E146" t="n">
-        <v>87811800</v>
+        <v>90296700</v>
       </c>
       <c r="F146" t="n">
-        <v>-21.37862230874572</v>
+        <v>-21.94016812671458</v>
       </c>
       <c r="G146" t="n">
-        <v>-4.557066185169937</v>
+        <v>-4.094795026385061</v>
       </c>
       <c r="H146" t="n">
-        <v>-16.82155612357578</v>
+        <v>-17.84537310032952</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -4511,28 +4511,28 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="B147" t="n">
-        <v>236.4733276367188</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="C147" t="n">
-        <v>235.6666717529297</v>
+        <v>237.9966735839844</v>
       </c>
       <c r="D147" t="n">
-        <v>244.6666717529297</v>
+        <v>240.5266723632812</v>
       </c>
       <c r="E147" t="n">
-        <v>90296700</v>
+        <v>144973200</v>
       </c>
       <c r="F147" t="n">
-        <v>-21.94009369152684</v>
+        <v>-23.34043994599415</v>
       </c>
       <c r="G147" t="n">
-        <v>-4.094830054360845</v>
+        <v>-4.396053476531701</v>
       </c>
       <c r="H147" t="n">
-        <v>-17.845263637166</v>
+        <v>-18.94438646946245</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -4540,28 +4540,28 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44701</v>
+        <v>44704</v>
       </c>
       <c r="B148" t="n">
-        <v>221.3000030517578</v>
+        <v>224.9666595458984</v>
       </c>
       <c r="C148" t="n">
-        <v>237.9966735839844</v>
+        <v>218.3399963378906</v>
       </c>
       <c r="D148" t="n">
-        <v>240.5266723632812</v>
+        <v>226.6533355712891</v>
       </c>
       <c r="E148" t="n">
-        <v>144973200</v>
+        <v>88903500</v>
       </c>
       <c r="F148" t="n">
-        <v>-23.34037102451146</v>
+        <v>-23.8790342727234</v>
       </c>
       <c r="G148" t="n">
-        <v>-4.396085909876369</v>
+        <v>-3.947718242608762</v>
       </c>
       <c r="H148" t="n">
-        <v>-18.94428511463509</v>
+        <v>-19.93131603011464</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -4569,28 +4569,28 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="B149" t="n">
-        <v>224.9666595458984</v>
+        <v>209.3866729736328</v>
       </c>
       <c r="C149" t="n">
-        <v>218.3399963378906</v>
+        <v>217.8433380126953</v>
       </c>
       <c r="D149" t="n">
-        <v>226.6533355712891</v>
+        <v>217.9733276367188</v>
       </c>
       <c r="E149" t="n">
-        <v>88903500</v>
+        <v>89092500</v>
       </c>
       <c r="F149" t="n">
-        <v>-23.87897045652508</v>
+        <v>-25.27173206982621</v>
       </c>
       <c r="G149" t="n">
-        <v>-3.947748273511998</v>
+        <v>-4.272332831769258</v>
       </c>
       <c r="H149" t="n">
-        <v>-19.93122218301308</v>
+        <v>-20.99939923805696</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -4598,28 +4598,28 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="B150" t="n">
-        <v>209.3866729736328</v>
+        <v>219.6000061035156</v>
       </c>
       <c r="C150" t="n">
-        <v>217.8433380126953</v>
+        <v>207.9499969482422</v>
       </c>
       <c r="D150" t="n">
-        <v>217.9733276367188</v>
+        <v>223.1066741943359</v>
       </c>
       <c r="E150" t="n">
-        <v>89092500</v>
+        <v>92139300</v>
       </c>
       <c r="F150" t="n">
-        <v>-25.27167298074471</v>
+        <v>-25.26014129571584</v>
       </c>
       <c r="G150" t="n">
-        <v>-4.272360638185301</v>
+        <v>-3.408593646127109</v>
       </c>
       <c r="H150" t="n">
-        <v>-20.99931234255941</v>
+        <v>-21.85154764958873</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="B151" t="n">
-        <v>219.6000061035156</v>
+        <v>235.9100036621094</v>
       </c>
       <c r="C151" t="n">
-        <v>207.9499969482422</v>
+        <v>220.4733276367188</v>
       </c>
       <c r="D151" t="n">
-        <v>223.1066741943359</v>
+        <v>239.5566711425781</v>
       </c>
       <c r="E151" t="n">
-        <v>92139300</v>
+        <v>106003200</v>
       </c>
       <c r="F151" t="n">
-        <v>-25.26008658359564</v>
+        <v>-23.66211292049118</v>
       </c>
       <c r="G151" t="n">
-        <v>-3.408619392828982</v>
+        <v>-1.448452216721957</v>
       </c>
       <c r="H151" t="n">
-        <v>-21.85146719076666</v>
+        <v>-22.21366070376923</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -4656,86 +4656,86 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="B152" t="n">
-        <v>235.9100036621094</v>
+        <v>253.2100067138672</v>
       </c>
       <c r="C152" t="n">
-        <v>220.4733276367188</v>
+        <v>241.0833282470703</v>
       </c>
       <c r="D152" t="n">
-        <v>239.5566711425781</v>
+        <v>253.2666625976562</v>
       </c>
       <c r="E152" t="n">
-        <v>106003200</v>
+        <v>89295000</v>
       </c>
       <c r="F152" t="n">
-        <v>-23.66206226111422</v>
+        <v>-20.76038545519785</v>
       </c>
       <c r="G152" t="n">
-        <v>-1.448476056278047</v>
+        <v>1.162620198857102</v>
       </c>
       <c r="H152" t="n">
-        <v>-22.21358620483617</v>
+        <v>-21.92300565405495</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="B153" t="n">
-        <v>253.2100067138672</v>
+        <v>252.7533264160156</v>
       </c>
       <c r="C153" t="n">
-        <v>241.0833282470703</v>
+        <v>257.9466552734375</v>
       </c>
       <c r="D153" t="n">
-        <v>253.2666625976562</v>
+        <v>259.6000061035156</v>
       </c>
       <c r="E153" t="n">
-        <v>89295000</v>
+        <v>101914500</v>
       </c>
       <c r="F153" t="n">
-        <v>-20.76033854836189</v>
+        <v>-18.28679700381153</v>
       </c>
       <c r="G153" t="n">
-        <v>1.162598125179425</v>
+        <v>2.908966920194739</v>
       </c>
       <c r="H153" t="n">
-        <v>-21.92293667354131</v>
+        <v>-21.19576392400627</v>
       </c>
       <c r="I153" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="B154" t="n">
-        <v>252.7533264160156</v>
+        <v>246.7899932861328</v>
       </c>
       <c r="C154" t="n">
-        <v>257.9466552734375</v>
+        <v>251.7200012207031</v>
       </c>
       <c r="D154" t="n">
-        <v>259.6000061035156</v>
+        <v>257.32666015625</v>
       </c>
       <c r="E154" t="n">
-        <v>101914500</v>
+        <v>77247900</v>
       </c>
       <c r="F154" t="n">
-        <v>-18.28675357155137</v>
+        <v>-16.61611129295747</v>
       </c>
       <c r="G154" t="n">
-        <v>2.908946481591954</v>
+        <v>3.663722104839039</v>
       </c>
       <c r="H154" t="n">
-        <v>-21.19570005314333</v>
+        <v>-20.27983339779651</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -4743,28 +4743,28 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="B155" t="n">
-        <v>246.7899932861328</v>
+        <v>258.3333435058594</v>
       </c>
       <c r="C155" t="n">
-        <v>251.7200012207031</v>
+        <v>244.1566619873047</v>
       </c>
       <c r="D155" t="n">
-        <v>257.32666015625</v>
+        <v>264.2099914550781</v>
       </c>
       <c r="E155" t="n">
-        <v>77247900</v>
+        <v>93473100</v>
       </c>
       <c r="F155" t="n">
-        <v>-16.61607107789783</v>
+        <v>-14.19697504848727</v>
       </c>
       <c r="G155" t="n">
-        <v>3.6637031801964</v>
+        <v>4.866286679447388</v>
       </c>
       <c r="H155" t="n">
-        <v>-20.27977425809423</v>
+        <v>-19.06326172793466</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -4772,28 +4772,28 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44714</v>
+        <v>44715</v>
       </c>
       <c r="B156" t="n">
-        <v>258.3333435058594</v>
+        <v>234.5166625976562</v>
       </c>
       <c r="C156" t="n">
-        <v>244.1566619873047</v>
+        <v>243.2266693115234</v>
       </c>
       <c r="D156" t="n">
-        <v>264.2099914550781</v>
+        <v>247.7966613769531</v>
       </c>
       <c r="E156" t="n">
-        <v>93473100</v>
+        <v>112393800</v>
       </c>
       <c r="F156" t="n">
-        <v>-14.19693781231766</v>
+        <v>-14.03975766389021</v>
       </c>
       <c r="G156" t="n">
-        <v>4.866269156621257</v>
+        <v>4.01880325123556</v>
       </c>
       <c r="H156" t="n">
-        <v>-19.06320696893891</v>
+        <v>-18.05856091512577</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -4801,28 +4801,28 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44715</v>
+        <v>44718</v>
       </c>
       <c r="B157" t="n">
-        <v>234.5166625976562</v>
+        <v>238.2799987792969</v>
       </c>
       <c r="C157" t="n">
-        <v>243.2266693115234</v>
+        <v>244.3533325195312</v>
       </c>
       <c r="D157" t="n">
-        <v>247.7966613769531</v>
+        <v>244.8666687011719</v>
       </c>
       <c r="E157" t="n">
-        <v>112393800</v>
+        <v>84204600</v>
       </c>
       <c r="F157" t="n">
-        <v>-14.03972318595254</v>
+        <v>-13.45637525789107</v>
       </c>
       <c r="G157" t="n">
-        <v>4.018787026389102</v>
+        <v>3.681748525787764</v>
       </c>
       <c r="H157" t="n">
-        <v>-18.05851021234164</v>
+        <v>-17.13812378367883</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -4830,28 +4830,28 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="B158" t="n">
-        <v>238.2799987792969</v>
+        <v>238.8866729736328</v>
       </c>
       <c r="C158" t="n">
-        <v>244.3533325195312</v>
+        <v>234</v>
       </c>
       <c r="D158" t="n">
-        <v>244.8666687011719</v>
+        <v>239.9966735839844</v>
       </c>
       <c r="E158" t="n">
-        <v>84204600</v>
+        <v>72808500</v>
       </c>
       <c r="F158" t="n">
-        <v>-13.45634333387238</v>
+        <v>-12.79756460227077</v>
       </c>
       <c r="G158" t="n">
-        <v>3.681733502775408</v>
+        <v>3.472447345126454</v>
       </c>
       <c r="H158" t="n">
-        <v>-17.13807683664779</v>
+        <v>-16.27001194739722</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -4859,28 +4859,28 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="B159" t="n">
-        <v>238.8866729736328</v>
+        <v>241.8666687011719</v>
       </c>
       <c r="C159" t="n">
-        <v>234</v>
+        <v>240.086669921875</v>
       </c>
       <c r="D159" t="n">
-        <v>239.9966735839844</v>
+        <v>249.9633331298828</v>
       </c>
       <c r="E159" t="n">
-        <v>72808500</v>
+        <v>76210500</v>
       </c>
       <c r="F159" t="n">
-        <v>-12.79753504299219</v>
+        <v>-11.89784075875011</v>
       </c>
       <c r="G159" t="n">
-        <v>3.472433434924476</v>
+        <v>3.497736950917693</v>
       </c>
       <c r="H159" t="n">
-        <v>-16.26996847791667</v>
+        <v>-15.3955777096678</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -4888,28 +4888,28 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="B160" t="n">
-        <v>241.8666687011719</v>
+        <v>239.7066650390625</v>
       </c>
       <c r="C160" t="n">
-        <v>240.086669921875</v>
+        <v>249.3399963378906</v>
       </c>
       <c r="D160" t="n">
-        <v>249.9633331298828</v>
+        <v>255.5466613769531</v>
       </c>
       <c r="E160" t="n">
-        <v>76210500</v>
+        <v>96491400</v>
       </c>
       <c r="F160" t="n">
-        <v>-11.89781338904598</v>
+        <v>-11.22964897110302</v>
       </c>
       <c r="G160" t="n">
-        <v>3.497724071096554</v>
+        <v>3.332742990851827</v>
       </c>
       <c r="H160" t="n">
-        <v>-15.39553746014253</v>
+        <v>-14.56239196195484</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -4917,28 +4917,28 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="B161" t="n">
-        <v>239.7066650390625</v>
+        <v>232.2299957275391</v>
       </c>
       <c r="C161" t="n">
-        <v>249.3399963378906</v>
+        <v>235.1566619873047</v>
       </c>
       <c r="D161" t="n">
-        <v>255.5466613769531</v>
+        <v>239.5</v>
       </c>
       <c r="E161" t="n">
-        <v>96491400</v>
+        <v>97536600</v>
       </c>
       <c r="F161" t="n">
-        <v>-11.22962362878292</v>
+        <v>-11.17459313986456</v>
       </c>
       <c r="G161" t="n">
-        <v>3.332731065087694</v>
+        <v>2.710239057672233</v>
       </c>
       <c r="H161" t="n">
-        <v>-14.56235469387061</v>
+        <v>-13.88483219753679</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -4946,28 +4946,28 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44722</v>
+        <v>44725</v>
       </c>
       <c r="B162" t="n">
-        <v>232.2299957275391</v>
+        <v>215.7366638183594</v>
       </c>
       <c r="C162" t="n">
-        <v>235.1566619873047</v>
+        <v>223.1666717529297</v>
       </c>
       <c r="D162" t="n">
-        <v>239.5</v>
+        <v>226.6333312988281</v>
       </c>
       <c r="E162" t="n">
-        <v>97536600</v>
+        <v>102767400</v>
       </c>
       <c r="F162" t="n">
-        <v>-11.17456967475212</v>
+        <v>-12.31981982734882</v>
       </c>
       <c r="G162" t="n">
-        <v>2.710228015294792</v>
+        <v>1.252009896150373</v>
       </c>
       <c r="H162" t="n">
-        <v>-13.88479769004691</v>
+        <v>-13.5718297234992</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -4975,28 +4975,28 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="B163" t="n">
-        <v>215.7366638183594</v>
+        <v>220.8899993896484</v>
       </c>
       <c r="C163" t="n">
-        <v>223.1666717529297</v>
+        <v>218.2866668701172</v>
       </c>
       <c r="D163" t="n">
-        <v>226.6333312988281</v>
+        <v>226.3300018310547</v>
       </c>
       <c r="E163" t="n">
-        <v>102767400</v>
+        <v>97988700</v>
       </c>
       <c r="F163" t="n">
-        <v>-12.31979810039186</v>
+        <v>-12.66558810014851</v>
       </c>
       <c r="G163" t="n">
-        <v>1.25199967172404</v>
+        <v>0.7249932986805483</v>
       </c>
       <c r="H163" t="n">
-        <v>-13.5717977721159</v>
+        <v>-13.39058139882906</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -5004,28 +5004,28 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="B164" t="n">
-        <v>220.8899993896484</v>
+        <v>233</v>
       </c>
       <c r="C164" t="n">
-        <v>218.2866668701172</v>
+        <v>220.9166717529297</v>
       </c>
       <c r="D164" t="n">
-        <v>226.3300018310547</v>
+        <v>235.663330078125</v>
       </c>
       <c r="E164" t="n">
-        <v>97988700</v>
+        <v>119131800</v>
       </c>
       <c r="F164" t="n">
-        <v>-12.66556798259495</v>
+        <v>-11.82611204752595</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7249838316167647</v>
+        <v>1.251575481042487</v>
       </c>
       <c r="H164" t="n">
-        <v>-13.39055181421172</v>
+        <v>-13.07768752856844</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -5033,28 +5033,28 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B165" t="n">
-        <v>233</v>
+        <v>213.1000061035156</v>
       </c>
       <c r="C165" t="n">
-        <v>220.9166717529297</v>
+        <v>222.7366638183594</v>
       </c>
       <c r="D165" t="n">
-        <v>235.663330078125</v>
+        <v>225.1666717529297</v>
       </c>
       <c r="E165" t="n">
-        <v>119131800</v>
+        <v>107390700</v>
       </c>
       <c r="F165" t="n">
-        <v>-11.82609342016082</v>
+        <v>-12.62109628239847</v>
       </c>
       <c r="G165" t="n">
-        <v>1.251566715240719</v>
+        <v>0.3652729969359783</v>
       </c>
       <c r="H165" t="n">
-        <v>-13.07766013540154</v>
+        <v>-12.98636927933445</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -5062,28 +5062,28 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="B166" t="n">
-        <v>213.1000061035156</v>
+        <v>216.7599945068359</v>
       </c>
       <c r="C166" t="n">
-        <v>222.7366638183594</v>
+        <v>213.4333343505859</v>
       </c>
       <c r="D166" t="n">
-        <v>225.1666717529297</v>
+        <v>220.9700012207031</v>
       </c>
       <c r="E166" t="n">
-        <v>107390700</v>
+        <v>92641800</v>
       </c>
       <c r="F166" t="n">
-        <v>-12.62107903483755</v>
+        <v>-12.80815213472718</v>
       </c>
       <c r="G166" t="n">
-        <v>0.3652648804511891</v>
+        <v>0.1425737156858151</v>
       </c>
       <c r="H166" t="n">
-        <v>-12.98634391528874</v>
+        <v>-12.950725850413</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -5091,28 +5091,28 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44729</v>
+        <v>44733</v>
       </c>
       <c r="B167" t="n">
-        <v>216.7599945068359</v>
+        <v>237.0366668701172</v>
       </c>
       <c r="C167" t="n">
-        <v>213.4333343505859</v>
+        <v>224.6033325195312</v>
       </c>
       <c r="D167" t="n">
-        <v>220.9700012207031</v>
+        <v>243.57666015625</v>
       </c>
       <c r="E167" t="n">
-        <v>92641800</v>
+        <v>122793000</v>
       </c>
       <c r="F167" t="n">
-        <v>-12.80813616476283</v>
+        <v>-11.19123169221893</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1425662004207293</v>
+        <v>1.407595326555249</v>
       </c>
       <c r="H167" t="n">
-        <v>-12.95070236518356</v>
+        <v>-12.59882701877418</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -5120,28 +5120,28 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B168" t="n">
-        <v>237.0366668701172</v>
+        <v>236.086669921875</v>
       </c>
       <c r="C168" t="n">
-        <v>224.6033325195312</v>
+        <v>234.5033264160156</v>
       </c>
       <c r="D168" t="n">
-        <v>243.57666015625</v>
+        <v>246.8333282470703</v>
       </c>
       <c r="E168" t="n">
-        <v>122793000</v>
+        <v>101107500</v>
       </c>
       <c r="F168" t="n">
-        <v>-11.19121690521445</v>
+        <v>-9.872661510145264</v>
       </c>
       <c r="G168" t="n">
-        <v>1.40758836797529</v>
+        <v>2.180932406903137</v>
       </c>
       <c r="H168" t="n">
-        <v>-12.59880527318974</v>
+        <v>-12.0535939170484</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -5149,28 +5149,28 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B169" t="n">
-        <v>236.086669921875</v>
+        <v>235.0700073242188</v>
       </c>
       <c r="C169" t="n">
-        <v>234.5033264160156</v>
+        <v>237.9066619873047</v>
       </c>
       <c r="D169" t="n">
-        <v>246.8333282470703</v>
+        <v>239.3166656494141</v>
       </c>
       <c r="E169" t="n">
-        <v>101107500</v>
+        <v>104202600</v>
       </c>
       <c r="F169" t="n">
-        <v>-9.872647818474093</v>
+        <v>-8.808186030440254</v>
       </c>
       <c r="G169" t="n">
-        <v>2.180925963772516</v>
+        <v>2.596326309286518</v>
       </c>
       <c r="H169" t="n">
-        <v>-12.05357378224661</v>
+        <v>-11.40451233972677</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -5178,28 +5178,28 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B170" t="n">
-        <v>235.0700073242188</v>
+        <v>245.7066650390625</v>
       </c>
       <c r="C170" t="n">
-        <v>237.9066619873047</v>
+        <v>237.4700012207031</v>
       </c>
       <c r="D170" t="n">
-        <v>239.3166656494141</v>
+        <v>246.0666656494141</v>
       </c>
       <c r="E170" t="n">
-        <v>104202600</v>
+        <v>95770800</v>
       </c>
       <c r="F170" t="n">
-        <v>-8.808173352966605</v>
+        <v>-7.02530877386971</v>
       </c>
       <c r="G170" t="n">
-        <v>2.596320343424004</v>
+        <v>3.503362852685649</v>
       </c>
       <c r="H170" t="n">
-        <v>-11.40449369639061</v>
+        <v>-10.52867162655536</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -5207,28 +5207,28 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44736</v>
+        <v>44739</v>
       </c>
       <c r="B171" t="n">
-        <v>245.7066650390625</v>
+        <v>244.9199981689453</v>
       </c>
       <c r="C171" t="n">
-        <v>237.4700012207031</v>
+        <v>249.3666687011719</v>
       </c>
       <c r="D171" t="n">
-        <v>246.0666656494141</v>
+        <v>252.0700073242188</v>
       </c>
       <c r="E171" t="n">
-        <v>95770800</v>
+        <v>89178300</v>
       </c>
       <c r="F171" t="n">
-        <v>-7.025297035467901</v>
+        <v>-5.611161171906446</v>
       </c>
       <c r="G171" t="n">
-        <v>3.503357328738167</v>
+        <v>3.934008363719132</v>
       </c>
       <c r="H171" t="n">
-        <v>-10.52865436420607</v>
+        <v>-9.545169535625577</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -5236,28 +5236,28 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B172" t="n">
-        <v>244.9199981689453</v>
+        <v>232.663330078125</v>
       </c>
       <c r="C172" t="n">
-        <v>249.3666687011719</v>
+        <v>244.4833374023438</v>
       </c>
       <c r="D172" t="n">
-        <v>252.0700073242188</v>
+        <v>249.9700012207031</v>
       </c>
       <c r="E172" t="n">
-        <v>89178300</v>
+        <v>90391200</v>
       </c>
       <c r="F172" t="n">
-        <v>-5.611150303015648</v>
+        <v>-5.417005819528811</v>
       </c>
       <c r="G172" t="n">
-        <v>3.934003248952335</v>
+        <v>3.302530972877413</v>
       </c>
       <c r="H172" t="n">
-        <v>-9.545153551967983</v>
+        <v>-8.719536792406224</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -5265,28 +5265,28 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="B173" t="n">
-        <v>232.663330078125</v>
+        <v>228.4900054931641</v>
       </c>
       <c r="C173" t="n">
-        <v>244.4833374023438</v>
+        <v>230.5</v>
       </c>
       <c r="D173" t="n">
-        <v>249.9700012207031</v>
+        <v>231.17333984375</v>
       </c>
       <c r="E173" t="n">
-        <v>90391200</v>
+        <v>82897200</v>
       </c>
       <c r="F173" t="n">
-        <v>-5.416995755740828</v>
+        <v>-5.536072324363403</v>
       </c>
       <c r="G173" t="n">
-        <v>3.302526236981725</v>
+        <v>2.546771574434256</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.719521992722553</v>
+        <v>-8.082843898797659</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -5294,28 +5294,28 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B174" t="n">
-        <v>228.4900054931641</v>
+        <v>224.4733276367188</v>
       </c>
       <c r="C174" t="n">
-        <v>230.5</v>
+        <v>224.5099945068359</v>
       </c>
       <c r="D174" t="n">
-        <v>231.17333984375</v>
+        <v>229.4566650390625</v>
       </c>
       <c r="E174" t="n">
-        <v>82897200</v>
+        <v>94600500</v>
       </c>
       <c r="F174" t="n">
-        <v>-5.536063006041019</v>
+        <v>-5.886687650609929</v>
       </c>
       <c r="G174" t="n">
-        <v>2.546767189345228</v>
+        <v>1.756924998550184</v>
       </c>
       <c r="H174" t="n">
-        <v>-8.082830195386247</v>
+        <v>-7.643612649160113</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -5323,28 +5323,28 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B175" t="n">
-        <v>224.4733276367188</v>
+        <v>227.2633361816406</v>
       </c>
       <c r="C175" t="n">
-        <v>224.5099945068359</v>
+        <v>227</v>
       </c>
       <c r="D175" t="n">
-        <v>229.4566650390625</v>
+        <v>230.2299957275391</v>
       </c>
       <c r="E175" t="n">
-        <v>94600500</v>
+        <v>74460300</v>
       </c>
       <c r="F175" t="n">
-        <v>-5.886679022533485</v>
+        <v>-5.871736724278151</v>
       </c>
       <c r="G175" t="n">
-        <v>1.75692093828221</v>
+        <v>1.417500739905571</v>
       </c>
       <c r="H175" t="n">
-        <v>-7.643599960815695</v>
+        <v>-7.289237464183722</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -5352,28 +5352,28 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="B176" t="n">
-        <v>227.2633361816406</v>
+        <v>233.0666656494141</v>
       </c>
       <c r="C176" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D176" t="n">
-        <v>230.2299957275391</v>
+        <v>233.1466674804688</v>
       </c>
       <c r="E176" t="n">
-        <v>74460300</v>
+        <v>84581100</v>
       </c>
       <c r="F176" t="n">
-        <v>-5.871728735318356</v>
+        <v>-5.330164995685521</v>
       </c>
       <c r="G176" t="n">
-        <v>1.417496980397871</v>
+        <v>1.567257974798561</v>
       </c>
       <c r="H176" t="n">
-        <v>-7.289225715716228</v>
+        <v>-6.897422970484082</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -5381,28 +5381,28 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="B177" t="n">
-        <v>233.0666656494141</v>
+        <v>231.7333374023438</v>
       </c>
       <c r="C177" t="n">
-        <v>223</v>
+        <v>230.7799987792969</v>
       </c>
       <c r="D177" t="n">
-        <v>233.1466674804688</v>
+        <v>234.5633392333984</v>
       </c>
       <c r="E177" t="n">
-        <v>84581100</v>
+        <v>71853600</v>
       </c>
       <c r="F177" t="n">
-        <v>-5.330157598500421</v>
+        <v>-4.951476407572272</v>
       </c>
       <c r="G177" t="n">
-        <v>1.567254493772646</v>
+        <v>1.556757250329449</v>
       </c>
       <c r="H177" t="n">
-        <v>-6.897412092273067</v>
+        <v>-6.508233657901721</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -5410,28 +5410,28 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="B178" t="n">
-        <v>231.7333374023438</v>
+        <v>244.5433349609375</v>
       </c>
       <c r="C178" t="n">
-        <v>230.7799987792969</v>
+        <v>233.9199981689453</v>
       </c>
       <c r="D178" t="n">
-        <v>234.5633392333984</v>
+        <v>245.3633270263672</v>
       </c>
       <c r="E178" t="n">
-        <v>71853600</v>
+        <v>81930600</v>
       </c>
       <c r="F178" t="n">
-        <v>-4.95146955832675</v>
+        <v>-3.576475840614847</v>
       </c>
       <c r="G178" t="n">
-        <v>1.556754027157054</v>
+        <v>2.3454062538295</v>
       </c>
       <c r="H178" t="n">
-        <v>-6.508223585483804</v>
+        <v>-5.921882094444348</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -5439,28 +5439,28 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B179" t="n">
-        <v>244.5433349609375</v>
+        <v>250.7633361816406</v>
       </c>
       <c r="C179" t="n">
-        <v>233.9199981689453</v>
+        <v>242.3333282470703</v>
       </c>
       <c r="D179" t="n">
-        <v>245.3633270263672</v>
+        <v>254.9799957275391</v>
       </c>
       <c r="E179" t="n">
-        <v>81930600</v>
+        <v>101854200</v>
       </c>
       <c r="F179" t="n">
-        <v>-3.576469498720769</v>
+        <v>-1.96225620114069</v>
       </c>
       <c r="G179" t="n">
-        <v>2.345403269410428</v>
+        <v>3.167700714642926</v>
       </c>
       <c r="H179" t="n">
-        <v>-5.921872768131197</v>
+        <v>-5.129956915783616</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -5468,28 +5468,28 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B180" t="n">
-        <v>250.7633361816406</v>
+        <v>234.3433380126953</v>
       </c>
       <c r="C180" t="n">
-        <v>242.3333282470703</v>
+        <v>252.1033325195312</v>
       </c>
       <c r="D180" t="n">
-        <v>254.9799957275391</v>
+        <v>253.0633392333984</v>
       </c>
       <c r="E180" t="n">
-        <v>101854200</v>
+        <v>99241200</v>
       </c>
       <c r="F180" t="n">
-        <v>-1.962250329016484</v>
+        <v>-1.985049714162102</v>
       </c>
       <c r="G180" t="n">
-        <v>3.167697951291771</v>
+        <v>2.515925761297212</v>
       </c>
       <c r="H180" t="n">
-        <v>-5.129948280308255</v>
+        <v>-4.500975475459314</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -5497,28 +5497,28 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B181" t="n">
-        <v>234.3433380126953</v>
+        <v>233.0700073242188</v>
       </c>
       <c r="C181" t="n">
-        <v>252.1033325195312</v>
+        <v>236.8466644287109</v>
       </c>
       <c r="D181" t="n">
-        <v>253.0633392333984</v>
+        <v>239.7733306884766</v>
       </c>
       <c r="E181" t="n">
-        <v>99241200</v>
+        <v>87930900</v>
       </c>
       <c r="F181" t="n">
-        <v>-1.985044277010019</v>
+        <v>-2.081862467727859</v>
       </c>
       <c r="G181" t="n">
-        <v>2.515923202638589</v>
+        <v>1.935290406185164</v>
       </c>
       <c r="H181" t="n">
-        <v>-4.500967479648608</v>
+        <v>-4.017152873913023</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -5526,28 +5526,28 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B182" t="n">
-        <v>233.0700073242188</v>
+        <v>237.0399932861328</v>
       </c>
       <c r="C182" t="n">
-        <v>236.8466644287109</v>
+        <v>225.5</v>
       </c>
       <c r="D182" t="n">
-        <v>239.7733306884766</v>
+        <v>242.0599975585938</v>
       </c>
       <c r="E182" t="n">
-        <v>87930900</v>
+        <v>97954500</v>
       </c>
       <c r="F182" t="n">
-        <v>-2.081857433327741</v>
+        <v>-1.81729395042322</v>
       </c>
       <c r="G182" t="n">
-        <v>1.935288037056694</v>
+        <v>1.759887138791842</v>
       </c>
       <c r="H182" t="n">
-        <v>-4.017145470384435</v>
+        <v>-3.577181089215063</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -5555,28 +5555,28 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B183" t="n">
-        <v>237.0399932861328</v>
+        <v>238.3133392333984</v>
       </c>
       <c r="C183" t="n">
-        <v>225.5</v>
+        <v>234.8966674804688</v>
       </c>
       <c r="D183" t="n">
-        <v>242.0599975585938</v>
+        <v>238.6533355712891</v>
       </c>
       <c r="E183" t="n">
-        <v>97954500</v>
+        <v>78557400</v>
       </c>
       <c r="F183" t="n">
-        <v>-1.817289288941595</v>
+        <v>-1.48772356699331</v>
       </c>
       <c r="G183" t="n">
-        <v>1.759884945154272</v>
+        <v>1.671566017777403</v>
       </c>
       <c r="H183" t="n">
-        <v>-3.577174234095867</v>
+        <v>-3.159289584770713</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -5584,28 +5584,28 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B184" t="n">
-        <v>238.3133392333984</v>
+        <v>240.0666656494141</v>
       </c>
       <c r="C184" t="n">
-        <v>234.8966674804688</v>
+        <v>240</v>
       </c>
       <c r="D184" t="n">
-        <v>238.6533355712891</v>
+        <v>243.6233367919922</v>
       </c>
       <c r="E184" t="n">
-        <v>78557400</v>
+        <v>69683100</v>
       </c>
       <c r="F184" t="n">
-        <v>-1.487719250806606</v>
+        <v>-1.072692543176686</v>
       </c>
       <c r="G184" t="n">
-        <v>1.671563986631409</v>
+        <v>1.669277633275221</v>
       </c>
       <c r="H184" t="n">
-        <v>-3.159283237438015</v>
+        <v>-2.741970176451907</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -5613,28 +5613,28 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B185" t="n">
-        <v>240.0666656494141</v>
+        <v>240.5466613769531</v>
       </c>
       <c r="C185" t="n">
-        <v>240</v>
+        <v>244.9366607666016</v>
       </c>
       <c r="D185" t="n">
-        <v>243.6233367919922</v>
+        <v>250.5166625976562</v>
       </c>
       <c r="E185" t="n">
-        <v>69683100</v>
+        <v>82537500</v>
       </c>
       <c r="F185" t="n">
-        <v>-1.072688546707468</v>
+        <v>-0.6970111127112091</v>
       </c>
       <c r="G185" t="n">
-        <v>1.669275752584438</v>
+        <v>1.635967250992559</v>
       </c>
       <c r="H185" t="n">
-        <v>-2.741964299291906</v>
+        <v>-2.332978363703768</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -5642,28 +5642,28 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B186" t="n">
-        <v>240.5466613769531</v>
+        <v>245.5299987792969</v>
       </c>
       <c r="C186" t="n">
-        <v>244.9366607666016</v>
+        <v>245</v>
       </c>
       <c r="D186" t="n">
-        <v>250.5166625976562</v>
+        <v>247.1399993896484</v>
       </c>
       <c r="E186" t="n">
-        <v>82537500</v>
+        <v>80890200</v>
       </c>
       <c r="F186" t="n">
-        <v>-0.6970074122767471</v>
+        <v>0.002800525734585335</v>
       </c>
       <c r="G186" t="n">
-        <v>1.635965509612127</v>
+        <v>1.868623111550683</v>
       </c>
       <c r="H186" t="n">
-        <v>-2.332972921888874</v>
+        <v>-1.865822585816097</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -5671,28 +5671,28 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B187" t="n">
-        <v>245.5299987792969</v>
+        <v>247.5</v>
       </c>
       <c r="C187" t="n">
-        <v>245</v>
+        <v>246.7833404541016</v>
       </c>
       <c r="D187" t="n">
-        <v>247.1399993896484</v>
+        <v>250.663330078125</v>
       </c>
       <c r="E187" t="n">
-        <v>80890200</v>
+        <v>88864200</v>
       </c>
       <c r="F187" t="n">
-        <v>0.002803952062805593</v>
+        <v>0.7082051771572253</v>
       </c>
       <c r="G187" t="n">
-        <v>1.868621499161344</v>
+        <v>2.059222210378658</v>
       </c>
       <c r="H187" t="n">
-        <v>-1.865817547098538</v>
+        <v>-1.351017033221433</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -5700,28 +5700,28 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B188" t="n">
-        <v>247.5</v>
+        <v>271.7066650390625</v>
       </c>
       <c r="C188" t="n">
-        <v>246.7833404541016</v>
+        <v>255.1066741943359</v>
       </c>
       <c r="D188" t="n">
-        <v>250.663330078125</v>
+        <v>273.2666625976562</v>
       </c>
       <c r="E188" t="n">
-        <v>88864200</v>
+        <v>142032300</v>
       </c>
       <c r="F188" t="n">
-        <v>0.708208349683332</v>
+        <v>3.183817939340514</v>
       </c>
       <c r="G188" t="n">
-        <v>2.059220717425496</v>
+        <v>3.627867978049558</v>
       </c>
       <c r="H188" t="n">
-        <v>-1.351012367742164</v>
+        <v>-0.4440500387090436</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -5729,28 +5729,28 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B189" t="n">
-        <v>271.7066650390625</v>
+        <v>272.2433471679688</v>
       </c>
       <c r="C189" t="n">
-        <v>255.1066741943359</v>
+        <v>276.2200012207031</v>
       </c>
       <c r="D189" t="n">
-        <v>273.2666625976562</v>
+        <v>280.7866821289062</v>
       </c>
       <c r="E189" t="n">
-        <v>142032300</v>
+        <v>103472700</v>
       </c>
       <c r="F189" t="n">
-        <v>3.183820876864729</v>
+        <v>5.129930011854526</v>
       </c>
       <c r="G189" t="n">
-        <v>3.627866595685515</v>
+        <v>4.459184040450856</v>
       </c>
       <c r="H189" t="n">
-        <v>-0.4440457188207856</v>
+        <v>0.6707459714036704</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -5758,28 +5758,28 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B190" t="n">
-        <v>272.2433471679688</v>
+        <v>268.4333190917969</v>
       </c>
       <c r="C190" t="n">
-        <v>276.2200012207031</v>
+        <v>272.2166748046875</v>
       </c>
       <c r="D190" t="n">
-        <v>280.7866821289062</v>
+        <v>274.1466674804688</v>
       </c>
       <c r="E190" t="n">
-        <v>103472700</v>
+        <v>64073400</v>
       </c>
       <c r="F190" t="n">
-        <v>5.129932731784379</v>
+        <v>6.292267088097077</v>
       </c>
       <c r="G190" t="n">
-        <v>4.459182760484132</v>
+        <v>4.497216893354725</v>
       </c>
       <c r="H190" t="n">
-        <v>0.6707499713002474</v>
+        <v>1.795050194742352</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -5787,28 +5787,28 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="B191" t="n">
-        <v>268.4333190917969</v>
+        <v>258.8599853515625</v>
       </c>
       <c r="C191" t="n">
-        <v>272.2166748046875</v>
+        <v>266.5133361816406</v>
       </c>
       <c r="D191" t="n">
-        <v>274.1466674804688</v>
+        <v>267.3099975585938</v>
       </c>
       <c r="E191" t="n">
-        <v>64073400</v>
+        <v>66820800</v>
       </c>
       <c r="F191" t="n">
-        <v>6.292269606550633</v>
+        <v>6.367538549315725</v>
       </c>
       <c r="G191" t="n">
-        <v>4.497215708200308</v>
+        <v>3.657990683658698</v>
       </c>
       <c r="H191" t="n">
-        <v>1.795053898350325</v>
+        <v>2.709547865657027</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -5816,28 +5816,28 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="B192" t="n">
-        <v>258.8599853515625</v>
+        <v>274.8200073242188</v>
       </c>
       <c r="C192" t="n">
-        <v>266.5133361816406</v>
+        <v>263.8099975585938</v>
       </c>
       <c r="D192" t="n">
-        <v>267.3099975585938</v>
+        <v>275.9266662597656</v>
       </c>
       <c r="E192" t="n">
-        <v>66820800</v>
+        <v>88110000</v>
       </c>
       <c r="F192" t="n">
-        <v>6.367540881217138</v>
+        <v>7.627111520461654</v>
       </c>
       <c r="G192" t="n">
-        <v>3.657989586293451</v>
+        <v>3.934050923843702</v>
       </c>
       <c r="H192" t="n">
-        <v>2.709551294923688</v>
+        <v>3.693060596617952</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -5845,28 +5845,28 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B193" t="n">
-        <v>274.8200073242188</v>
+        <v>280.8999938964844</v>
       </c>
       <c r="C193" t="n">
-        <v>263.8099975585938</v>
+        <v>280.0666809082031</v>
       </c>
       <c r="D193" t="n">
-        <v>275.9266662597656</v>
+        <v>283.2999877929688</v>
       </c>
       <c r="E193" t="n">
-        <v>88110000</v>
+        <v>84723000</v>
       </c>
       <c r="F193" t="n">
-        <v>7.627113679629701</v>
+        <v>9.012050964925294</v>
       </c>
       <c r="G193" t="n">
-        <v>3.934049907764811</v>
+        <v>4.255192294645873</v>
       </c>
       <c r="H193" t="n">
-        <v>3.693063771864891</v>
+        <v>4.756858670279421</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -5874,28 +5874,28 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B194" t="n">
-        <v>280.8999938964844</v>
+        <v>297.1499938964844</v>
       </c>
       <c r="C194" t="n">
-        <v>280.0666809082031</v>
+        <v>280.7000122070312</v>
       </c>
       <c r="D194" t="n">
-        <v>283.2999877929688</v>
+        <v>298.3200073242188</v>
       </c>
       <c r="E194" t="n">
-        <v>84723000</v>
+        <v>95313000</v>
       </c>
       <c r="F194" t="n">
-        <v>9.012052964154947</v>
+        <v>11.29071234204153</v>
       </c>
       <c r="G194" t="n">
-        <v>4.255191353832044</v>
+        <v>5.227082937409687</v>
       </c>
       <c r="H194" t="n">
-        <v>4.756861610322902</v>
+        <v>6.063629404631843</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -5903,28 +5903,28 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44771</v>
+        <v>44774</v>
       </c>
       <c r="B195" t="n">
-        <v>297.1499938964844</v>
+        <v>297.2766723632812</v>
       </c>
       <c r="C195" t="n">
-        <v>280.7000122070312</v>
+        <v>301.2766723632812</v>
       </c>
       <c r="D195" t="n">
-        <v>298.3200073242188</v>
+        <v>311.8766784667969</v>
       </c>
       <c r="E195" t="n">
-        <v>95313000</v>
+        <v>117042900</v>
       </c>
       <c r="F195" t="n">
-        <v>11.29071419318009</v>
+        <v>12.95742466799339</v>
       </c>
       <c r="G195" t="n">
-        <v>5.227082066285753</v>
+        <v>5.51503621068924</v>
       </c>
       <c r="H195" t="n">
-        <v>6.063632126894341</v>
+        <v>7.442388457304154</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -5932,28 +5932,28 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B196" t="n">
-        <v>297.2766723632812</v>
+        <v>300.586669921875</v>
       </c>
       <c r="C196" t="n">
-        <v>301.2766723632812</v>
+        <v>294.0033264160156</v>
       </c>
       <c r="D196" t="n">
-        <v>311.8766784667969</v>
+        <v>307.8333435058594</v>
       </c>
       <c r="E196" t="n">
-        <v>117042900</v>
+        <v>95577600</v>
       </c>
       <c r="F196" t="n">
-        <v>12.95742638201057</v>
+        <v>14.3796358435074</v>
       </c>
       <c r="G196" t="n">
-        <v>5.515035404092981</v>
+        <v>5.549797908962598</v>
       </c>
       <c r="H196" t="n">
-        <v>7.442390977917587</v>
+        <v>8.829837934544804</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -5961,28 +5961,28 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B197" t="n">
-        <v>300.586669921875</v>
+        <v>307.3966674804688</v>
       </c>
       <c r="C197" t="n">
-        <v>294.0033264160156</v>
+        <v>305</v>
       </c>
       <c r="D197" t="n">
-        <v>307.8333435058594</v>
+        <v>309.5499877929688</v>
       </c>
       <c r="E197" t="n">
-        <v>95577600</v>
+        <v>80091000</v>
       </c>
       <c r="F197" t="n">
-        <v>14.37963743056036</v>
+        <v>15.87328103305998</v>
       </c>
       <c r="G197" t="n">
-        <v>5.549797162114222</v>
+        <v>5.634754478812141</v>
       </c>
       <c r="H197" t="n">
-        <v>8.829840268446143</v>
+        <v>10.23852655424784</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -5990,28 +5990,28 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B198" t="n">
-        <v>307.3966674804688</v>
+        <v>308.6333312988281</v>
       </c>
       <c r="C198" t="n">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D198" t="n">
-        <v>309.5499877929688</v>
+        <v>313.6066589355469</v>
       </c>
       <c r="E198" t="n">
-        <v>80091000</v>
+        <v>72256200</v>
       </c>
       <c r="F198" t="n">
-        <v>15.87328250255342</v>
+        <v>16.96127502140411</v>
       </c>
       <c r="G198" t="n">
-        <v>5.634753787285824</v>
+        <v>5.378198773725011</v>
       </c>
       <c r="H198" t="n">
-        <v>10.2385287152676</v>
+        <v>11.5830762476791</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -6019,28 +6019,28 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B199" t="n">
-        <v>308.6333312988281</v>
+        <v>288.1700134277344</v>
       </c>
       <c r="C199" t="n">
-        <v>311</v>
+        <v>302.6700134277344</v>
       </c>
       <c r="D199" t="n">
-        <v>313.6066589355469</v>
+        <v>304.6066589355469</v>
       </c>
       <c r="E199" t="n">
-        <v>72256200</v>
+        <v>113172900</v>
       </c>
       <c r="F199" t="n">
-        <v>16.96127638204615</v>
+        <v>15.9879996547898</v>
       </c>
       <c r="G199" t="n">
-        <v>5.378198133422842</v>
+        <v>3.523938725688566</v>
       </c>
       <c r="H199" t="n">
-        <v>11.58307824862331</v>
+        <v>12.46406092910124</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -6048,28 +6048,28 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B200" t="n">
-        <v>288.1700134277344</v>
+        <v>290.42333984375</v>
       </c>
       <c r="C200" t="n">
-        <v>302.6700134277344</v>
+        <v>295</v>
       </c>
       <c r="D200" t="n">
-        <v>304.6066589355469</v>
+        <v>305.2000122070312</v>
       </c>
       <c r="E200" t="n">
-        <v>113172900</v>
+        <v>98994000</v>
       </c>
       <c r="F200" t="n">
-        <v>15.98800091464358</v>
+        <v>15.22301508273955</v>
       </c>
       <c r="G200" t="n">
-        <v>3.523938132816216</v>
+        <v>2.207163322910651</v>
       </c>
       <c r="H200" t="n">
-        <v>12.46406278182736</v>
+        <v>13.0158517598289</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -6077,28 +6077,28 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B201" t="n">
-        <v>290.42333984375</v>
+        <v>283.3333435058594</v>
       </c>
       <c r="C201" t="n">
-        <v>295</v>
+        <v>290.2933349609375</v>
       </c>
       <c r="D201" t="n">
-        <v>305.2000122070312</v>
+        <v>292.3966674804688</v>
       </c>
       <c r="E201" t="n">
-        <v>98994000</v>
+        <v>86244600</v>
       </c>
       <c r="F201" t="n">
-        <v>15.22301624927076</v>
+        <v>13.884602788991</v>
       </c>
       <c r="G201" t="n">
-        <v>2.207162773954714</v>
+        <v>0.695000823329682</v>
       </c>
       <c r="H201" t="n">
-        <v>13.01585347531604</v>
+        <v>13.18960196566132</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -6106,28 +6106,28 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B202" t="n">
-        <v>283.3333435058594</v>
+        <v>294.3566589355469</v>
       </c>
       <c r="C202" t="n">
-        <v>290.2933349609375</v>
+        <v>297.0666809082031</v>
       </c>
       <c r="D202" t="n">
-        <v>292.3966674804688</v>
+        <v>297.510009765625</v>
       </c>
       <c r="E202" t="n">
-        <v>86244600</v>
+        <v>94918800</v>
       </c>
       <c r="F202" t="n">
-        <v>13.88460386911254</v>
+        <v>13.55711287473019</v>
       </c>
       <c r="G202" t="n">
-        <v>0.6950003150371948</v>
+        <v>0.2940087272550969</v>
       </c>
       <c r="H202" t="n">
-        <v>13.18960355407534</v>
+        <v>13.2631041474751</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -6135,57 +6135,57 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B203" t="n">
-        <v>294.3566589355469</v>
+        <v>286.6300048828125</v>
       </c>
       <c r="C203" t="n">
-        <v>297.0666809082031</v>
+        <v>296.5133361816406</v>
       </c>
       <c r="D203" t="n">
-        <v>297.510009765625</v>
+        <v>298.2366638183594</v>
       </c>
       <c r="E203" t="n">
-        <v>94918800</v>
+        <v>70155000</v>
       </c>
       <c r="F203" t="n">
-        <v>13.55711387484274</v>
+        <v>12.52966418129085</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2940082566139175</v>
+        <v>-0.5867519729473951</v>
       </c>
       <c r="H203" t="n">
-        <v>13.26310561822882</v>
+        <v>13.11641615423825</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B204" t="n">
-        <v>286.6300048828125</v>
+        <v>300.0299987792969</v>
       </c>
       <c r="C204" t="n">
-        <v>296.5133361816406</v>
+        <v>289.4166564941406</v>
       </c>
       <c r="D204" t="n">
-        <v>298.2366638183594</v>
+        <v>300.1600036621094</v>
       </c>
       <c r="E204" t="n">
-        <v>70155000</v>
+        <v>79657200</v>
       </c>
       <c r="F204" t="n">
-        <v>12.52966510732097</v>
+        <v>12.65084019747479</v>
       </c>
       <c r="G204" t="n">
-        <v>-0.5867524087262872</v>
+        <v>-0.3724607654107661</v>
       </c>
       <c r="H204" t="n">
-        <v>13.11641751604725</v>
+        <v>13.02330096288556</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -6193,86 +6193,86 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44785</v>
+        <v>44788</v>
       </c>
       <c r="B205" t="n">
-        <v>300.0299987792969</v>
+        <v>309.3200073242188</v>
       </c>
       <c r="C205" t="n">
-        <v>289.4166564941406</v>
+        <v>301.7866821289062</v>
       </c>
       <c r="D205" t="n">
-        <v>300.1600036621094</v>
+        <v>313.1333312988281</v>
       </c>
       <c r="E205" t="n">
-        <v>79657200</v>
+        <v>89359200</v>
       </c>
       <c r="F205" t="n">
-        <v>12.65084105491007</v>
+        <v>13.34269285536226</v>
       </c>
       <c r="G205" t="n">
-        <v>-0.3724611689097443</v>
+        <v>0.2555135139813594</v>
       </c>
       <c r="H205" t="n">
-        <v>13.02330222381982</v>
+        <v>13.0871793413809</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B206" t="n">
-        <v>309.3200073242188</v>
+        <v>306.5633239746094</v>
       </c>
       <c r="C206" t="n">
-        <v>301.7866821289062</v>
+        <v>311.6666564941406</v>
       </c>
       <c r="D206" t="n">
-        <v>313.1333312988281</v>
+        <v>314.6666564941406</v>
       </c>
       <c r="E206" t="n">
-        <v>89359200</v>
+        <v>88136400</v>
       </c>
       <c r="F206" t="n">
-        <v>13.34269364928383</v>
+        <v>13.5127828146459</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2555131403712085</v>
+        <v>0.3404827786120013</v>
       </c>
       <c r="H206" t="n">
-        <v>13.08718050891262</v>
+        <v>13.1723000360339</v>
       </c>
       <c r="I206" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B207" t="n">
-        <v>306.5633239746094</v>
+        <v>303.9966735839844</v>
       </c>
       <c r="C207" t="n">
-        <v>311.6666564941406</v>
+        <v>303.3966674804688</v>
       </c>
       <c r="D207" t="n">
-        <v>314.6666564941406</v>
+        <v>309.6566772460938</v>
       </c>
       <c r="E207" t="n">
-        <v>88136400</v>
+        <v>68766000</v>
       </c>
       <c r="F207" t="n">
-        <v>13.51278354975847</v>
+        <v>13.28730531210152</v>
       </c>
       <c r="G207" t="n">
-        <v>0.3404824326766747</v>
+        <v>0.09200422085409699</v>
       </c>
       <c r="H207" t="n">
-        <v>13.17230111708179</v>
+        <v>13.19530109124743</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -6280,57 +6280,57 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B208" t="n">
-        <v>303.9966735839844</v>
+        <v>302.8699951171875</v>
       </c>
       <c r="C208" t="n">
-        <v>303.3966674804688</v>
+        <v>306</v>
       </c>
       <c r="D208" t="n">
-        <v>309.6566772460938</v>
+        <v>306.5</v>
       </c>
       <c r="E208" t="n">
-        <v>68766000</v>
+        <v>47500500</v>
       </c>
       <c r="F208" t="n">
-        <v>13.28730599276128</v>
+        <v>12.86934938184953</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09200390054358643</v>
+        <v>-0.2607613675183167</v>
       </c>
       <c r="H208" t="n">
-        <v>13.19530209221769</v>
+        <v>13.13011074936785</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B209" t="n">
-        <v>302.8699951171875</v>
+        <v>296.6666564941406</v>
       </c>
       <c r="C209" t="n">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D209" t="n">
-        <v>306.5</v>
+        <v>300.3599853515625</v>
       </c>
       <c r="E209" t="n">
-        <v>47500500</v>
+        <v>61395300</v>
       </c>
       <c r="F209" t="n">
-        <v>12.86935001209008</v>
+        <v>11.90037855623137</v>
       </c>
       <c r="G209" t="n">
-        <v>-0.2607616641020876</v>
+        <v>-0.9837857545091815</v>
       </c>
       <c r="H209" t="n">
-        <v>13.13011167619217</v>
+        <v>12.88416431074056</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -6338,28 +6338,28 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44792</v>
+        <v>44795</v>
       </c>
       <c r="B210" t="n">
-        <v>296.6666564941406</v>
+        <v>289.913330078125</v>
       </c>
       <c r="C210" t="n">
-        <v>299</v>
+        <v>291.913330078125</v>
       </c>
       <c r="D210" t="n">
-        <v>300.3599853515625</v>
+        <v>292.3999938964844</v>
       </c>
       <c r="E210" t="n">
-        <v>61395300</v>
+        <v>55843200</v>
       </c>
       <c r="F210" t="n">
-        <v>11.90037913978745</v>
+        <v>10.46686963623597</v>
       </c>
       <c r="G210" t="n">
-        <v>-0.9837860291237774</v>
+        <v>-1.933835739603669</v>
       </c>
       <c r="H210" t="n">
-        <v>12.88416516891122</v>
+        <v>12.40070537583964</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -6367,28 +6367,28 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B211" t="n">
-        <v>289.913330078125</v>
+        <v>296.4533386230469</v>
       </c>
       <c r="C211" t="n">
-        <v>291.913330078125</v>
+        <v>291.4533386230469</v>
       </c>
       <c r="D211" t="n">
-        <v>292.3999938964844</v>
+        <v>298.82666015625</v>
       </c>
       <c r="E211" t="n">
-        <v>55843200</v>
+        <v>63984900</v>
       </c>
       <c r="F211" t="n">
-        <v>10.46687017656564</v>
+        <v>9.746179629723542</v>
       </c>
       <c r="G211" t="n">
-        <v>-1.933835993876473</v>
+        <v>-2.123620596892879</v>
       </c>
       <c r="H211" t="n">
-        <v>12.40070617044211</v>
+        <v>11.86980022661642</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -6396,28 +6396,28 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B212" t="n">
-        <v>296.4533386230469</v>
+        <v>297.0966796875</v>
       </c>
       <c r="C212" t="n">
-        <v>291.4533386230469</v>
+        <v>297.5633239746094</v>
       </c>
       <c r="D212" t="n">
-        <v>298.82666015625</v>
+        <v>303.6466674804688</v>
       </c>
       <c r="E212" t="n">
-        <v>63984900</v>
+        <v>57259800</v>
       </c>
       <c r="F212" t="n">
-        <v>9.74618013002879</v>
+        <v>9.121789542814383</v>
       </c>
       <c r="G212" t="n">
-        <v>-2.123620832330655</v>
+        <v>-2.198408547041632</v>
       </c>
       <c r="H212" t="n">
-        <v>11.86980096235945</v>
+        <v>11.32019808985602</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -6425,28 +6425,28 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B213" t="n">
-        <v>297.0966796875</v>
+        <v>296.0700073242188</v>
       </c>
       <c r="C213" t="n">
-        <v>297.5633239746094</v>
+        <v>302.3599853515625</v>
       </c>
       <c r="D213" t="n">
-        <v>303.6466674804688</v>
+        <v>302.9599914550781</v>
       </c>
       <c r="E213" t="n">
-        <v>57259800</v>
+        <v>53230000</v>
       </c>
       <c r="F213" t="n">
-        <v>9.121790006059996</v>
+        <v>8.446743223033309</v>
       </c>
       <c r="G213" t="n">
-        <v>-2.198408765039559</v>
+        <v>-2.298763893458165</v>
       </c>
       <c r="H213" t="n">
-        <v>11.32019877109956</v>
+        <v>10.74550711649147</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -6454,28 +6454,28 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B214" t="n">
-        <v>296.0700073242188</v>
+        <v>288.0899963378906</v>
       </c>
       <c r="C214" t="n">
-        <v>302.3599853515625</v>
+        <v>297.4299926757812</v>
       </c>
       <c r="D214" t="n">
-        <v>302.9599914550781</v>
+        <v>302</v>
       </c>
       <c r="E214" t="n">
-        <v>53230000</v>
+        <v>57163900</v>
       </c>
       <c r="F214" t="n">
-        <v>8.446743651964425</v>
+        <v>7.185019523748053</v>
       </c>
       <c r="G214" t="n">
-        <v>-2.298764095308105</v>
+        <v>-2.848390074194738</v>
       </c>
       <c r="H214" t="n">
-        <v>10.74550774727253</v>
+        <v>10.03340959794279</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -6483,28 +6483,28 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B215" t="n">
-        <v>288.0899963378906</v>
+        <v>284.8200073242188</v>
       </c>
       <c r="C215" t="n">
-        <v>297.4299926757812</v>
+        <v>282.8299865722656</v>
       </c>
       <c r="D215" t="n">
-        <v>302</v>
+        <v>287.739990234375</v>
       </c>
       <c r="E215" t="n">
-        <v>57163900</v>
+        <v>41864700</v>
       </c>
       <c r="F215" t="n">
-        <v>7.185019920906484</v>
+        <v>5.853755171094917</v>
       </c>
       <c r="G215" t="n">
-        <v>-2.848390261092838</v>
+        <v>-3.343723541478299</v>
       </c>
       <c r="H215" t="n">
-        <v>10.03341018199932</v>
+        <v>9.197478712573217</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -6512,28 +6512,28 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B216" t="n">
-        <v>284.8200073242188</v>
+        <v>277.7000122070312</v>
       </c>
       <c r="C216" t="n">
-        <v>282.8299865722656</v>
+        <v>287.8699951171875</v>
       </c>
       <c r="D216" t="n">
-        <v>287.739990234375</v>
+        <v>288.4800109863281</v>
       </c>
       <c r="E216" t="n">
-        <v>41864700</v>
+        <v>50541800</v>
       </c>
       <c r="F216" t="n">
-        <v>5.853755538834207</v>
+        <v>4.17605551028231</v>
       </c>
       <c r="G216" t="n">
-        <v>-3.343723714532093</v>
+        <v>-4.017138561832725</v>
       </c>
       <c r="H216" t="n">
-        <v>9.1974792533663</v>
+        <v>8.193194072115036</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -6541,28 +6541,28 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B217" t="n">
-        <v>277.7000122070312</v>
+        <v>275.6099853515625</v>
       </c>
       <c r="C217" t="n">
-        <v>287.8699951171875</v>
+        <v>280.6199951171875</v>
       </c>
       <c r="D217" t="n">
-        <v>288.4800109863281</v>
+        <v>281.25</v>
       </c>
       <c r="E217" t="n">
-        <v>50541800</v>
+        <v>52107300</v>
       </c>
       <c r="F217" t="n">
-        <v>4.176055850781665</v>
+        <v>2.647302288864296</v>
       </c>
       <c r="G217" t="n">
-        <v>-4.017138722067708</v>
+        <v>-4.436713426600592</v>
       </c>
       <c r="H217" t="n">
-        <v>8.193194572849373</v>
+        <v>7.084015715464888</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -6570,28 +6570,28 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B218" t="n">
-        <v>275.6099853515625</v>
+        <v>277.1600036621094</v>
       </c>
       <c r="C218" t="n">
-        <v>280.6199951171875</v>
+        <v>272.5799865722656</v>
       </c>
       <c r="D218" t="n">
-        <v>281.25</v>
+        <v>277.5799865722656</v>
       </c>
       <c r="E218" t="n">
-        <v>52107300</v>
+        <v>54287000</v>
       </c>
       <c r="F218" t="n">
-        <v>2.647302604141487</v>
+        <v>1.543040658237203</v>
       </c>
       <c r="G218" t="n">
-        <v>-4.436713574966309</v>
+        <v>-4.432780045782149</v>
       </c>
       <c r="H218" t="n">
-        <v>7.084016179107796</v>
+        <v>5.975820704019352</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -6599,28 +6599,28 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B219" t="n">
-        <v>277.1600036621094</v>
+        <v>270.2099914550781</v>
       </c>
       <c r="C219" t="n">
-        <v>272.5799865722656</v>
+        <v>281.0700073242188</v>
       </c>
       <c r="D219" t="n">
-        <v>277.5799865722656</v>
+        <v>282.3500061035156</v>
       </c>
       <c r="E219" t="n">
-        <v>54287000</v>
+        <v>50752200</v>
       </c>
       <c r="F219" t="n">
-        <v>1.543040950160503</v>
+        <v>0.1058769748973987</v>
       </c>
       <c r="G219" t="n">
-        <v>-4.432780183157836</v>
+        <v>-4.695954983297563</v>
       </c>
       <c r="H219" t="n">
-        <v>5.975821133318338</v>
+        <v>4.801831958194962</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -6628,28 +6628,28 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B220" t="n">
-        <v>270.2099914550781</v>
+        <v>274.4200134277344</v>
       </c>
       <c r="C220" t="n">
-        <v>281.0700073242188</v>
+        <v>272.6799926757812</v>
       </c>
       <c r="D220" t="n">
-        <v>282.3500061035156</v>
+        <v>275.989990234375</v>
       </c>
       <c r="E220" t="n">
-        <v>50752200</v>
+        <v>55860000</v>
       </c>
       <c r="F220" t="n">
-        <v>0.1058772451967229</v>
+        <v>-0.6854703344577615</v>
       </c>
       <c r="G220" t="n">
-        <v>-4.695955110497293</v>
+        <v>-4.389841834122179</v>
       </c>
       <c r="H220" t="n">
-        <v>4.801832355694016</v>
+        <v>3.704371499664417</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -6657,28 +6657,28 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B221" t="n">
-        <v>274.4200134277344</v>
+        <v>283.7000122070312</v>
       </c>
       <c r="C221" t="n">
-        <v>272.6799926757812</v>
+        <v>273.1000061035156</v>
       </c>
       <c r="D221" t="n">
-        <v>275.989990234375</v>
+        <v>283.8399963378906</v>
       </c>
       <c r="E221" t="n">
-        <v>55860000</v>
+        <v>50028900</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.6854700841806221</v>
+        <v>-0.5573753570062649</v>
       </c>
       <c r="G221" t="n">
-        <v>-4.38984195189971</v>
+        <v>-3.409397485336546</v>
       </c>
       <c r="H221" t="n">
-        <v>3.704371867719088</v>
+        <v>2.852022128330281</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -6686,28 +6686,28 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B222" t="n">
-        <v>283.7000122070312</v>
+        <v>289.260009765625</v>
       </c>
       <c r="C222" t="n">
-        <v>273.1000061035156</v>
+        <v>281.2999877929688</v>
       </c>
       <c r="D222" t="n">
-        <v>283.8399963378906</v>
+        <v>289.5</v>
       </c>
       <c r="E222" t="n">
-        <v>50028900</v>
+        <v>53713100</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.5573751252681518</v>
+        <v>-0.007131619491133279</v>
       </c>
       <c r="G222" t="n">
-        <v>-3.409397594389792</v>
+        <v>-2.287322998257132</v>
       </c>
       <c r="H222" t="n">
-        <v>2.85202246912164</v>
+        <v>2.280191378765998</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -6715,28 +6715,28 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B223" t="n">
-        <v>289.260009765625</v>
+        <v>299.6799926757812</v>
       </c>
       <c r="C223" t="n">
-        <v>281.2999877929688</v>
+        <v>291.6700134277344</v>
       </c>
       <c r="D223" t="n">
-        <v>289.5</v>
+        <v>299.8500061035156</v>
       </c>
       <c r="E223" t="n">
-        <v>53713100</v>
+        <v>54338100</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.007131404918766293</v>
+        <v>1.255276003810877</v>
       </c>
       <c r="G223" t="n">
-        <v>-2.287323099232326</v>
+        <v>-0.8199322999640972</v>
       </c>
       <c r="H223" t="n">
-        <v>2.280191694313559</v>
+        <v>2.075208303774974</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -6744,86 +6744,86 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>44813</v>
+        <v>44816</v>
       </c>
       <c r="B224" t="n">
-        <v>299.6799926757812</v>
+        <v>304.4200134277344</v>
       </c>
       <c r="C224" t="n">
-        <v>291.6700134277344</v>
+        <v>300.7200012207031</v>
       </c>
       <c r="D224" t="n">
-        <v>299.8500061035156</v>
+        <v>305.489990234375</v>
       </c>
       <c r="E224" t="n">
-        <v>54338100</v>
+        <v>48674600</v>
       </c>
       <c r="F224" t="n">
-        <v>1.255276202488972</v>
+        <v>2.608157979444741</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.8199323934596703</v>
+        <v>0.4263597405358128</v>
       </c>
       <c r="H224" t="n">
-        <v>2.075208595948642</v>
+        <v>2.181798238908928</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B225" t="n">
-        <v>304.4200134277344</v>
+        <v>292.1300048828125</v>
       </c>
       <c r="C225" t="n">
-        <v>300.7200012207031</v>
+        <v>292.8999938964844</v>
       </c>
       <c r="D225" t="n">
-        <v>305.489990234375</v>
+        <v>297.3999938964844</v>
       </c>
       <c r="E225" t="n">
-        <v>48674600</v>
+        <v>68229600</v>
       </c>
       <c r="F225" t="n">
-        <v>2.60815816340596</v>
+        <v>2.657986105153384</v>
       </c>
       <c r="G225" t="n">
-        <v>0.4263596539658545</v>
+        <v>0.3809502929955646</v>
       </c>
       <c r="H225" t="n">
-        <v>2.181798509440106</v>
+        <v>2.277035812157819</v>
       </c>
       <c r="I225" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B226" t="n">
-        <v>292.1300048828125</v>
+        <v>302.6099853515625</v>
       </c>
       <c r="C226" t="n">
-        <v>292.8999938964844</v>
+        <v>292.239990234375</v>
       </c>
       <c r="D226" t="n">
-        <v>297.3999938964844</v>
+        <v>306</v>
       </c>
       <c r="E226" t="n">
-        <v>68229600</v>
+        <v>72628700</v>
       </c>
       <c r="F226" t="n">
-        <v>2.657986275487872</v>
+        <v>3.502744633000304</v>
       </c>
       <c r="G226" t="n">
-        <v>0.3809502128382127</v>
+        <v>0.9805670566739879</v>
       </c>
       <c r="H226" t="n">
-        <v>2.277036062649659</v>
+        <v>2.522177576326317</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -6831,28 +6831,28 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B227" t="n">
-        <v>302.6099853515625</v>
+        <v>303.75</v>
       </c>
       <c r="C227" t="n">
-        <v>292.239990234375</v>
+        <v>301.8299865722656</v>
       </c>
       <c r="D227" t="n">
-        <v>306</v>
+        <v>309.1199951171875</v>
       </c>
       <c r="E227" t="n">
-        <v>72628700</v>
+        <v>64795500</v>
       </c>
       <c r="F227" t="n">
-        <v>3.502744790717372</v>
+        <v>4.215616504174534</v>
       </c>
       <c r="G227" t="n">
-        <v>0.9805669824541705</v>
+        <v>1.354751142278574</v>
       </c>
       <c r="H227" t="n">
-        <v>2.522177808263202</v>
+        <v>2.86086536189596</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -6860,28 +6860,28 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B228" t="n">
-        <v>303.75</v>
+        <v>303.3500061035156</v>
       </c>
       <c r="C228" t="n">
-        <v>301.8299865722656</v>
+        <v>299.6099853515625</v>
       </c>
       <c r="D228" t="n">
-        <v>309.1199951171875</v>
+        <v>303.7099914550781</v>
       </c>
       <c r="E228" t="n">
-        <v>64795500</v>
+        <v>86949500</v>
       </c>
       <c r="F228" t="n">
-        <v>4.215616650208801</v>
+        <v>4.694184793219051</v>
       </c>
       <c r="G228" t="n">
-        <v>1.354751073556479</v>
+        <v>1.466655545058473</v>
       </c>
       <c r="H228" t="n">
-        <v>2.860865576652322</v>
+        <v>3.227529248160578</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -6889,28 +6889,28 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>44820</v>
+        <v>44823</v>
       </c>
       <c r="B229" t="n">
-        <v>303.3500061035156</v>
+        <v>309.0700073242188</v>
       </c>
       <c r="C229" t="n">
-        <v>299.6099853515625</v>
+        <v>300.0899963378906</v>
       </c>
       <c r="D229" t="n">
-        <v>303.7099914550781</v>
+        <v>309.8399963378906</v>
       </c>
       <c r="E229" t="n">
-        <v>86949500</v>
+        <v>60231200</v>
       </c>
       <c r="F229" t="n">
-        <v>4.694184928435959</v>
+        <v>5.471932868700719</v>
       </c>
       <c r="G229" t="n">
-        <v>1.466655481426909</v>
+        <v>1.795522896432112</v>
       </c>
       <c r="H229" t="n">
-        <v>3.22752944700905</v>
+        <v>3.676409972268607</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -6918,28 +6918,28 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B230" t="n">
-        <v>309.0700073242188</v>
+        <v>308.7300109863281</v>
       </c>
       <c r="C230" t="n">
-        <v>300.0899963378906</v>
+        <v>306.9100036621094</v>
       </c>
       <c r="D230" t="n">
-        <v>309.8399963378906</v>
+        <v>313.3299865722656</v>
       </c>
       <c r="E230" t="n">
-        <v>60231200</v>
+        <v>61642800</v>
       </c>
       <c r="F230" t="n">
-        <v>5.471932993901589</v>
+        <v>5.991799227167178</v>
       </c>
       <c r="G230" t="n">
-        <v>1.795522837514032</v>
+        <v>1.852311403918856</v>
       </c>
       <c r="H230" t="n">
-        <v>3.676410156387558</v>
+        <v>4.139487823248322</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -6947,28 +6947,28 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B231" t="n">
-        <v>308.7300109863281</v>
+        <v>300.7999877929688</v>
       </c>
       <c r="C231" t="n">
-        <v>306.9100036621094</v>
+        <v>308.2900085449219</v>
       </c>
       <c r="D231" t="n">
-        <v>313.3299865722656</v>
+        <v>313.7999877929688</v>
       </c>
       <c r="E231" t="n">
-        <v>61642800</v>
+        <v>62555700</v>
       </c>
       <c r="F231" t="n">
-        <v>5.991799343093874</v>
+        <v>5.698224874618859</v>
       </c>
       <c r="G231" t="n">
-        <v>1.852311349365053</v>
+        <v>1.246989641096429</v>
       </c>
       <c r="H231" t="n">
-        <v>4.139487993728821</v>
+        <v>4.451235233522429</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -6976,57 +6976,57 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B232" t="n">
-        <v>300.7999877929688</v>
+        <v>288.5899963378906</v>
       </c>
       <c r="C232" t="n">
-        <v>308.2900085449219</v>
+        <v>299.8599853515625</v>
       </c>
       <c r="D232" t="n">
-        <v>313.7999877929688</v>
+        <v>301.2900085449219</v>
       </c>
       <c r="E232" t="n">
-        <v>62555700</v>
+        <v>70545400</v>
       </c>
       <c r="F232" t="n">
-        <v>5.69822498195839</v>
+        <v>4.429263030768595</v>
       </c>
       <c r="G232" t="n">
-        <v>1.246989590583655</v>
+        <v>-0.01757776220306795</v>
       </c>
       <c r="H232" t="n">
-        <v>4.451235391374735</v>
+        <v>4.446840792971663</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B233" t="n">
-        <v>288.5899963378906</v>
+        <v>275.3299865722656</v>
       </c>
       <c r="C233" t="n">
-        <v>299.8599853515625</v>
+        <v>283.0899963378906</v>
       </c>
       <c r="D233" t="n">
-        <v>301.2900085449219</v>
+        <v>284.5</v>
       </c>
       <c r="E233" t="n">
-        <v>70545400</v>
+        <v>63615400</v>
       </c>
       <c r="F233" t="n">
-        <v>4.42926313015704</v>
+        <v>2.32680766718056</v>
       </c>
       <c r="G233" t="n">
-        <v>-0.01757780897415628</v>
+        <v>-1.696026500632883</v>
       </c>
       <c r="H233" t="n">
-        <v>4.446840939131196</v>
+        <v>4.022834167813443</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -7034,28 +7034,28 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="B234" t="n">
-        <v>275.3299865722656</v>
+        <v>276.010009765625</v>
       </c>
       <c r="C234" t="n">
-        <v>283.0899963378906</v>
+        <v>271.8299865722656</v>
       </c>
       <c r="D234" t="n">
-        <v>284.5</v>
+        <v>284.0899963378906</v>
       </c>
       <c r="E234" t="n">
-        <v>63615400</v>
+        <v>58076900</v>
       </c>
       <c r="F234" t="n">
-        <v>2.326807759206872</v>
+        <v>0.7073153417065896</v>
       </c>
       <c r="G234" t="n">
-        <v>-1.696026543939459</v>
+        <v>-2.652415060885482</v>
       </c>
       <c r="H234" t="n">
-        <v>4.022834303146331</v>
+        <v>3.359730402592072</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -7063,28 +7063,28 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B235" t="n">
-        <v>276.010009765625</v>
+        <v>282.9400024414062</v>
       </c>
       <c r="C235" t="n">
-        <v>271.8299865722656</v>
+        <v>283.8399963378906</v>
       </c>
       <c r="D235" t="n">
-        <v>284.0899963378906</v>
+        <v>288.6700134277344</v>
       </c>
       <c r="E235" t="n">
-        <v>58076900</v>
+        <v>61925200</v>
       </c>
       <c r="F235" t="n">
-        <v>0.707315426916125</v>
+        <v>-0.01675832196951887</v>
       </c>
       <c r="G235" t="n">
-        <v>-2.652415100984165</v>
+        <v>-2.701190979649273</v>
       </c>
       <c r="H235" t="n">
-        <v>3.35973052790029</v>
+        <v>2.684432657679754</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -7092,28 +7092,28 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B236" t="n">
-        <v>282.9400024414062</v>
+        <v>287.8099975585938</v>
       </c>
       <c r="C236" t="n">
-        <v>283.8399963378906</v>
+        <v>283.0799865722656</v>
       </c>
       <c r="D236" t="n">
-        <v>288.6700134277344</v>
+        <v>289</v>
       </c>
       <c r="E236" t="n">
-        <v>61925200</v>
+        <v>54664800</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.01675824307176299</v>
+        <v>-0.1953718859062405</v>
       </c>
       <c r="G236" t="n">
-        <v>-2.701191016777642</v>
+        <v>-2.303843634868795</v>
       </c>
       <c r="H236" t="n">
-        <v>2.684432773705879</v>
+        <v>2.108471748962555</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -7121,28 +7121,28 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B237" t="n">
-        <v>287.8099975585938</v>
+        <v>268.2099914550781</v>
       </c>
       <c r="C237" t="n">
-        <v>283.0799865722656</v>
+        <v>282.760009765625</v>
       </c>
       <c r="D237" t="n">
-        <v>289</v>
+        <v>283.6499938964844</v>
       </c>
       <c r="E237" t="n">
-        <v>54664800</v>
+        <v>77620600</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.1953718128527839</v>
+        <v>-1.896618078035658</v>
       </c>
       <c r="G237" t="n">
-        <v>-2.30384366924693</v>
+        <v>-3.20407186159857</v>
       </c>
       <c r="H237" t="n">
-        <v>2.108471856394146</v>
+        <v>1.307453783562912</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -7150,28 +7150,28 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B238" t="n">
-        <v>268.2099914550781</v>
+        <v>265.25</v>
       </c>
       <c r="C238" t="n">
-        <v>282.760009765625</v>
+        <v>266.1499938964844</v>
       </c>
       <c r="D238" t="n">
-        <v>283.6499938964844</v>
+        <v>275.5700073242188</v>
       </c>
       <c r="E238" t="n">
-        <v>77620600</v>
+        <v>67517800</v>
       </c>
       <c r="F238" t="n">
-        <v>-1.896618010393524</v>
+        <v>-3.444014064547389</v>
       </c>
       <c r="G238" t="n">
-        <v>-3.204071893430137</v>
+        <v>-3.801174278488241</v>
       </c>
       <c r="H238" t="n">
-        <v>1.307453883036612</v>
+        <v>0.3571602139408521</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -7179,28 +7179,28 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>44834</v>
+        <v>44837</v>
       </c>
       <c r="B239" t="n">
-        <v>265.25</v>
+        <v>242.3999938964844</v>
       </c>
       <c r="C239" t="n">
-        <v>266.1499938964844</v>
+        <v>254.5</v>
       </c>
       <c r="D239" t="n">
-        <v>275.5700073242188</v>
+        <v>255.1600036621094</v>
       </c>
       <c r="E239" t="n">
-        <v>67517800</v>
+        <v>98363500</v>
       </c>
       <c r="F239" t="n">
-        <v>-3.444014001915775</v>
+        <v>-6.43990583358152</v>
       </c>
       <c r="G239" t="n">
-        <v>-3.80117430796191</v>
+        <v>-5.437652838017897</v>
       </c>
       <c r="H239" t="n">
-        <v>0.3571603060461347</v>
+        <v>-1.002252995563623</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -7208,28 +7208,28 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B240" t="n">
-        <v>242.3999938964844</v>
+        <v>249.4400024414062</v>
       </c>
       <c r="C240" t="n">
-        <v>254.5</v>
+        <v>250.5200042724609</v>
       </c>
       <c r="D240" t="n">
-        <v>255.1600036621094</v>
+        <v>257.5</v>
       </c>
       <c r="E240" t="n">
-        <v>98363500</v>
+        <v>109578500</v>
       </c>
       <c r="F240" t="n">
-        <v>-6.439905775589239</v>
+        <v>-8.152129121023847</v>
       </c>
       <c r="G240" t="n">
-        <v>-5.437652865308299</v>
+        <v>-5.719900900368179</v>
       </c>
       <c r="H240" t="n">
-        <v>-1.00225291028094</v>
+        <v>-2.432228220655668</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -7237,28 +7237,28 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B241" t="n">
-        <v>249.4400024414062</v>
+        <v>240.8099975585938</v>
       </c>
       <c r="C241" t="n">
-        <v>250.5200042724609</v>
+        <v>245.0099945068359</v>
       </c>
       <c r="D241" t="n">
-        <v>257.5</v>
+        <v>246.6699981689453</v>
       </c>
       <c r="E241" t="n">
-        <v>109578500</v>
+        <v>86982700</v>
       </c>
       <c r="F241" t="n">
-        <v>-8.15212906732728</v>
+        <v>-10.08914628421837</v>
       </c>
       <c r="G241" t="n">
-        <v>-5.719900925637072</v>
+        <v>-6.125534450850164</v>
       </c>
       <c r="H241" t="n">
-        <v>-2.432228141690208</v>
+        <v>-3.963611833368209</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -7266,28 +7266,28 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B242" t="n">
-        <v>240.8099975585938</v>
+        <v>238.1300048828125</v>
       </c>
       <c r="C242" t="n">
-        <v>245.0099945068359</v>
+        <v>239.4400024414062</v>
       </c>
       <c r="D242" t="n">
-        <v>246.6699981689453</v>
+        <v>244.5800018310547</v>
       </c>
       <c r="E242" t="n">
-        <v>86982700</v>
+        <v>69298400</v>
       </c>
       <c r="F242" t="n">
-        <v>-10.08914623449931</v>
+        <v>-11.70556488724833</v>
       </c>
       <c r="G242" t="n">
-        <v>-6.125534474247281</v>
+        <v>-6.193562443104096</v>
       </c>
       <c r="H242" t="n">
-        <v>-3.963611760252029</v>
+        <v>-5.512002444144233</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -7295,28 +7295,28 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B243" t="n">
-        <v>238.1300048828125</v>
+        <v>223.0700073242188</v>
       </c>
       <c r="C243" t="n">
-        <v>239.4400024414062</v>
+        <v>233.9400024414062</v>
       </c>
       <c r="D243" t="n">
-        <v>244.5800018310547</v>
+        <v>234.5700073242188</v>
       </c>
       <c r="E243" t="n">
-        <v>69298400</v>
+        <v>83592300</v>
       </c>
       <c r="F243" t="n">
-        <v>-11.70556484121215</v>
+        <v>-14.03996029444164</v>
       </c>
       <c r="G243" t="n">
-        <v>-6.193562464768098</v>
+        <v>-6.822366280237926</v>
       </c>
       <c r="H243" t="n">
-        <v>-5.512002376444054</v>
+        <v>-7.217594014203716</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -7324,28 +7324,28 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>44841</v>
+        <v>44844</v>
       </c>
       <c r="B244" t="n">
-        <v>223.0700073242188</v>
+        <v>222.9600067138672</v>
       </c>
       <c r="C244" t="n">
-        <v>233.9400024414062</v>
+        <v>223.9299926757812</v>
       </c>
       <c r="D244" t="n">
-        <v>234.5700073242188</v>
+        <v>226.9900054931641</v>
       </c>
       <c r="E244" t="n">
-        <v>83592300</v>
+        <v>67925000</v>
       </c>
       <c r="F244" t="n">
-        <v>-14.03996025181556</v>
+        <v>-15.71767799498363</v>
       </c>
       <c r="G244" t="n">
-        <v>-6.822366300297203</v>
+        <v>-6.800067184623932</v>
       </c>
       <c r="H244" t="n">
-        <v>-7.217593951518355</v>
+        <v>-8.917610810359699</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -7353,28 +7353,28 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B245" t="n">
-        <v>222.9600067138672</v>
+        <v>216.5</v>
       </c>
       <c r="C245" t="n">
-        <v>223.9299926757812</v>
+        <v>220.9499969482422</v>
       </c>
       <c r="D245" t="n">
-        <v>226.9900054931641</v>
+        <v>225.75</v>
       </c>
       <c r="E245" t="n">
-        <v>67925000</v>
+        <v>77013200</v>
       </c>
       <c r="F245" t="n">
-        <v>-15.71767795551509</v>
+        <v>-17.36833851822411</v>
       </c>
       <c r="G245" t="n">
-        <v>-6.800067203197385</v>
+        <v>-6.760582166291526</v>
       </c>
       <c r="H245" t="n">
-        <v>-8.917610752317701</v>
+        <v>-10.60775635193258</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -7382,28 +7382,28 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B246" t="n">
-        <v>216.5</v>
+        <v>217.2400054931641</v>
       </c>
       <c r="C246" t="n">
-        <v>220.9499969482422</v>
+        <v>215.3300018310547</v>
       </c>
       <c r="D246" t="n">
-        <v>225.75</v>
+        <v>219.3000030517578</v>
       </c>
       <c r="E246" t="n">
-        <v>77013200</v>
+        <v>66860700</v>
       </c>
       <c r="F246" t="n">
-        <v>-17.36833848167913</v>
+        <v>-18.40462950400652</v>
       </c>
       <c r="G246" t="n">
-        <v>-6.760582183489143</v>
+        <v>-6.237498521659152</v>
       </c>
       <c r="H246" t="n">
-        <v>-10.60775629818999</v>
+        <v>-12.16713098234737</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -7411,28 +7411,28 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B247" t="n">
-        <v>217.2400054931641</v>
+        <v>221.7200012207031</v>
       </c>
       <c r="C247" t="n">
-        <v>215.3300018310547</v>
+        <v>208.3000030517578</v>
       </c>
       <c r="D247" t="n">
-        <v>219.3000030517578</v>
+        <v>222.9900054931641</v>
       </c>
       <c r="E247" t="n">
-        <v>66860700</v>
+        <v>91483000</v>
       </c>
       <c r="F247" t="n">
-        <v>-18.4046294701686</v>
+        <v>-18.64942045187846</v>
       </c>
       <c r="G247" t="n">
-        <v>-6.237498537582889</v>
+        <v>-5.185831575624867</v>
       </c>
       <c r="H247" t="n">
-        <v>-12.16713093258571</v>
+        <v>-13.46358887625359</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -7440,28 +7440,28 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B248" t="n">
-        <v>221.7200012207031</v>
+        <v>204.9900054931641</v>
       </c>
       <c r="C248" t="n">
-        <v>208.3000030517578</v>
+        <v>224.0099945068359</v>
       </c>
       <c r="D248" t="n">
-        <v>222.9900054931641</v>
+        <v>226.2599945068359</v>
       </c>
       <c r="E248" t="n">
-        <v>91483000</v>
+        <v>93898700</v>
       </c>
       <c r="F248" t="n">
-        <v>-18.64942042054705</v>
+        <v>-19.9632657773154</v>
       </c>
       <c r="G248" t="n">
-        <v>-5.185831590369066</v>
+        <v>-5.199741520849448</v>
       </c>
       <c r="H248" t="n">
-        <v>-13.46358883017798</v>
+        <v>-14.76352425646595</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -7469,28 +7469,28 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="B249" t="n">
-        <v>204.9900054931641</v>
+        <v>219.3500061035156</v>
       </c>
       <c r="C249" t="n">
-        <v>224.0099945068359</v>
+        <v>210.0399932861328</v>
       </c>
       <c r="D249" t="n">
-        <v>226.2599945068359</v>
+        <v>221.8600006103516</v>
       </c>
       <c r="E249" t="n">
-        <v>93898700</v>
+        <v>79428800</v>
       </c>
       <c r="F249" t="n">
-        <v>-19.96326574830485</v>
+        <v>-19.61960305451211</v>
       </c>
       <c r="G249" t="n">
-        <v>-5.199741534501495</v>
+        <v>-3.884863038436928</v>
       </c>
       <c r="H249" t="n">
-        <v>-14.76352421380335</v>
+        <v>-15.73474001607518</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -7498,28 +7498,28 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B250" t="n">
-        <v>219.3500061035156</v>
+        <v>220.1900024414062</v>
       </c>
       <c r="C250" t="n">
-        <v>210.0399932861328</v>
+        <v>229.5</v>
       </c>
       <c r="D250" t="n">
-        <v>221.8600006103516</v>
+        <v>229.8200073242188</v>
       </c>
       <c r="E250" t="n">
-        <v>79428800</v>
+        <v>75891900</v>
       </c>
       <c r="F250" t="n">
-        <v>-19.6196030276505</v>
+        <v>-19.05975815864349</v>
       </c>
       <c r="G250" t="n">
-        <v>-3.884863051077716</v>
+        <v>-2.660014514054645</v>
       </c>
       <c r="H250" t="n">
-        <v>-15.73473997657278</v>
+        <v>-16.39974364458885</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -7527,28 +7527,28 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B251" t="n">
-        <v>220.1900024414062</v>
+        <v>222.0399932861328</v>
       </c>
       <c r="C251" t="n">
-        <v>229.5</v>
+        <v>219.8000030517578</v>
       </c>
       <c r="D251" t="n">
-        <v>229.8200073242188</v>
+        <v>222.9299926757812</v>
       </c>
       <c r="E251" t="n">
-        <v>75891900</v>
+        <v>66571500</v>
       </c>
       <c r="F251" t="n">
-        <v>-19.05975813377162</v>
+        <v>-18.25635040180364</v>
       </c>
       <c r="G251" t="n">
-        <v>-2.66001452575907</v>
+        <v>-1.485285405771837</v>
       </c>
       <c r="H251" t="n">
-        <v>-16.39974360801255</v>
+        <v>-16.77106499603181</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -7556,28 +7556,28 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B252" t="n">
-        <v>222.0399932861328</v>
+        <v>207.2799987792969</v>
       </c>
       <c r="C252" t="n">
-        <v>219.8000030517578</v>
+        <v>208.2799987792969</v>
       </c>
       <c r="D252" t="n">
-        <v>222.9299926757812</v>
+        <v>215.5500030517578</v>
       </c>
       <c r="E252" t="n">
-        <v>66571500</v>
+        <v>117798100</v>
       </c>
       <c r="F252" t="n">
-        <v>-18.25635037877413</v>
+        <v>-18.59628576206924</v>
       </c>
       <c r="G252" t="n">
-        <v>-1.485285416609262</v>
+        <v>-1.460176612829947</v>
       </c>
       <c r="H252" t="n">
-        <v>-16.77106496216487</v>
+        <v>-17.1361091492393</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -7585,28 +7585,28 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B253" t="n">
-        <v>207.2799987792969</v>
+        <v>214.4400024414062</v>
       </c>
       <c r="C253" t="n">
-        <v>208.2799987792969</v>
+        <v>206.4199981689453</v>
       </c>
       <c r="D253" t="n">
-        <v>215.5500030517578</v>
+        <v>214.6600036621094</v>
       </c>
       <c r="E253" t="n">
-        <v>117056152</v>
+        <v>75529300</v>
       </c>
       <c r="F253" t="n">
-        <v>-18.59628574074563</v>
+        <v>-18.07952501701428</v>
       </c>
       <c r="G253" t="n">
-        <v>-1.460176622864608</v>
+        <v>-0.7547326942199852</v>
       </c>
       <c r="H253" t="n">
-        <v>-17.13610911788102</v>
+        <v>-17.32479232279429</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
